--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -12556,7 +12556,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16826,7 +16826,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17436,7 +17436,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18046,7 +18046,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -29026,7 +29026,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -30856,7 +30856,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -31466,7 +31466,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -33296,7 +33296,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -34516,7 +34516,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -35126,7 +35126,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -35736,7 +35736,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -36346,7 +36346,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -36956,7 +36956,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -37566,7 +37566,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -38176,7 +38176,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -38786,7 +38786,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -39396,7 +39396,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -40006,7 +40006,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -40616,7 +40616,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -41226,7 +41226,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -41836,7 +41836,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -42446,7 +42446,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -43056,7 +43056,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -43666,7 +43666,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -44276,7 +44276,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -44886,7 +44886,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -45496,7 +45496,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -46106,7 +46106,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -46716,7 +46716,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -47326,7 +47326,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -47936,7 +47936,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -48546,7 +48546,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -49156,7 +49156,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -49766,7 +49766,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -50376,7 +50376,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -50986,7 +50986,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -51596,7 +51596,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -52206,7 +52206,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -52816,7 +52816,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -53426,7 +53426,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -54036,7 +54036,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -54646,7 +54646,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -55256,7 +55256,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -55866,7 +55866,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -56476,7 +56476,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -57086,7 +57086,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -57696,7 +57696,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -58306,7 +58306,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -58916,7 +58916,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -59526,7 +59526,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -60136,7 +60136,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -60746,7 +60746,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -61356,7 +61356,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -61966,7 +61966,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GT102"/>
+  <dimension ref="A1:GV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,6 +962,12 @@
       <c r="GT1" t="n">
         <v>9910</v>
       </c>
+      <c r="GU1" t="n">
+        <v>9936</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>10129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1572,6 +1578,12 @@
       <c r="GT2" t="n">
         <v>2019</v>
       </c>
+      <c r="GU2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2182,6 +2194,12 @@
       <c r="GT3" t="n">
         <v>23</v>
       </c>
+      <c r="GU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2792,6 +2810,12 @@
       <c r="GT4" t="n">
         <v>1</v>
       </c>
+      <c r="GU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3402,6 +3426,12 @@
       <c r="GT5" t="n">
         <v>0</v>
       </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4012,6 +4042,12 @@
       <c r="GT6" t="n">
         <v>83</v>
       </c>
+      <c r="GU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4622,6 +4658,12 @@
       <c r="GT7" t="n">
         <v>88</v>
       </c>
+      <c r="GU7" t="n">
+        <v>78</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5232,6 +5274,12 @@
       <c r="GT8" t="n">
         <v>-5</v>
       </c>
+      <c r="GU8" t="n">
+        <v>-27</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5842,6 +5890,12 @@
       <c r="GT9" t="n">
         <v>0</v>
       </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6452,6 +6506,12 @@
       <c r="GT10" t="n">
         <v>12</v>
       </c>
+      <c r="GU10" t="n">
+        <v>17</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7062,6 +7122,12 @@
       <c r="GT11" t="n">
         <v>201</v>
       </c>
+      <c r="GU11" t="n">
+        <v>177</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7672,6 +7738,12 @@
       <c r="GT12" t="n">
         <v>184</v>
       </c>
+      <c r="GU12" t="n">
+        <v>141</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8282,6 +8354,12 @@
       <c r="GT13" t="n">
         <v>385</v>
       </c>
+      <c r="GU13" t="n">
+        <v>318</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8892,6 +8970,12 @@
       <c r="GT14" t="n">
         <v>1.09</v>
       </c>
+      <c r="GU14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9502,6 +9586,12 @@
       <c r="GT15" t="n">
         <v>77</v>
       </c>
+      <c r="GU15" t="n">
+        <v>80</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10112,6 +10202,12 @@
       <c r="GT16" t="n">
         <v>62</v>
       </c>
+      <c r="GU16" t="n">
+        <v>29</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10722,6 +10818,12 @@
       <c r="GT17" t="n">
         <v>50</v>
       </c>
+      <c r="GU17" t="n">
+        <v>19</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11332,6 +11434,12 @@
       <c r="GT18" t="n">
         <v>16</v>
       </c>
+      <c r="GU18" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11942,6 +12050,12 @@
       <c r="GT19" t="n">
         <v>20</v>
       </c>
+      <c r="GU19" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12552,6 +12666,12 @@
       <c r="GT20" t="n">
         <v>12</v>
       </c>
+      <c r="GU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13162,6 +13282,12 @@
       <c r="GT21" t="n">
         <v>10</v>
       </c>
+      <c r="GU21" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13772,6 +13898,12 @@
       <c r="GT22" t="n">
         <v>9</v>
       </c>
+      <c r="GU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14382,6 +14514,12 @@
       <c r="GT23" t="n">
         <v>2</v>
       </c>
+      <c r="GU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14992,6 +15130,12 @@
       <c r="GT24" t="n">
         <v>23</v>
       </c>
+      <c r="GU24" t="n">
+        <v>16</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15602,6 +15746,12 @@
       <c r="GT25" t="n">
         <v>52.2</v>
       </c>
+      <c r="GU25" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16212,6 +16362,12 @@
       <c r="GT26" t="n">
         <v>32.08</v>
       </c>
+      <c r="GU26" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>38.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16822,6 +16978,12 @@
       <c r="GT27" t="n">
         <v>16.74</v>
       </c>
+      <c r="GU27" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>21.93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17432,6 +17594,12 @@
       <c r="GT28" t="n">
         <v>47</v>
       </c>
+      <c r="GU28" t="n">
+        <v>25</v>
+      </c>
+      <c r="GV28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18042,6 +18210,12 @@
       <c r="GT29" t="n">
         <v>70</v>
       </c>
+      <c r="GU29" t="n">
+        <v>44</v>
+      </c>
+      <c r="GV29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18652,6 +18826,12 @@
       <c r="GT30" t="n">
         <v>41</v>
       </c>
+      <c r="GU30" t="n">
+        <v>21</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19262,6 +19442,12 @@
       <c r="GT31" t="n">
         <v>51</v>
       </c>
+      <c r="GU31" t="n">
+        <v>45</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19872,6 +20058,12 @@
       <c r="GT32" t="n">
         <v>2.22</v>
       </c>
+      <c r="GU32" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20482,6 +20674,12 @@
       <c r="GT33" t="n">
         <v>4.25</v>
       </c>
+      <c r="GU33" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21092,6 +21290,12 @@
       <c r="GT34" t="n">
         <v>41.2</v>
       </c>
+      <c r="GU34" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21702,6 +21906,12 @@
       <c r="GT35" t="n">
         <v>23.5</v>
       </c>
+      <c r="GU35" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="GV35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22312,6 +22522,12 @@
       <c r="GT36" t="n">
         <v>186.4</v>
       </c>
+      <c r="GU36" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="GV36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22922,6 +23138,12 @@
       <c r="GT37" t="n">
         <v>86.5</v>
       </c>
+      <c r="GU37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="GV37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23532,6 +23754,12 @@
       <c r="GT38" t="n">
         <v>25</v>
       </c>
+      <c r="GU38" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="GV38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24142,6 +24370,12 @@
       <c r="GT39" t="n">
         <v>95.2</v>
       </c>
+      <c r="GU39" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="GV39" t="n">
+        <v>98.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24752,6 +24986,12 @@
       <c r="GT40" t="n">
         <v>7</v>
       </c>
+      <c r="GU40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25362,6 +25602,12 @@
       <c r="GT41" t="n">
         <v>9</v>
       </c>
+      <c r="GU41" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25972,6 +26218,12 @@
       <c r="GT42" t="n">
         <v>3</v>
       </c>
+      <c r="GU42" t="n">
+        <v>6</v>
+      </c>
+      <c r="GV42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26582,6 +26834,12 @@
       <c r="GT43" t="n">
         <v>3</v>
       </c>
+      <c r="GU43" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27192,6 +27450,12 @@
       <c r="GT44" t="n">
         <v>155</v>
       </c>
+      <c r="GU44" t="n">
+        <v>118</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27802,6 +28066,12 @@
       <c r="GT45" t="n">
         <v>232</v>
       </c>
+      <c r="GU45" t="n">
+        <v>201</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28412,6 +28682,12 @@
       <c r="GT46" t="n">
         <v>269</v>
       </c>
+      <c r="GU46" t="n">
+        <v>231</v>
+      </c>
+      <c r="GV46" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29022,6 +29298,12 @@
       <c r="GT47" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="GU47" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="GV47" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29632,6 +29914,12 @@
       <c r="GT48" t="n">
         <v>70</v>
       </c>
+      <c r="GU48" t="n">
+        <v>44</v>
+      </c>
+      <c r="GV48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30242,6 +30530,12 @@
       <c r="GT49" t="n">
         <v>13</v>
       </c>
+      <c r="GU49" t="n">
+        <v>7</v>
+      </c>
+      <c r="GV49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30852,6 +31146,12 @@
       <c r="GT50" t="n">
         <v>11</v>
       </c>
+      <c r="GU50" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31462,6 +31762,12 @@
       <c r="GT51" t="n">
         <v>47</v>
       </c>
+      <c r="GU51" t="n">
+        <v>25</v>
+      </c>
+      <c r="GV51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32072,6 +32378,12 @@
       <c r="GT52" t="n">
         <v>41</v>
       </c>
+      <c r="GU52" t="n">
+        <v>21</v>
+      </c>
+      <c r="GV52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32682,6 +32994,12 @@
       <c r="GT53" t="n">
         <v>41</v>
       </c>
+      <c r="GU53" t="n">
+        <v>36</v>
+      </c>
+      <c r="GV53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33292,6 +33610,12 @@
       <c r="GT54" t="n">
         <v>1</v>
       </c>
+      <c r="GU54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33902,6 +34226,12 @@
       <c r="GT55" t="n">
         <v>10</v>
       </c>
+      <c r="GU55" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34512,6 +34842,12 @@
       <c r="GT56" t="n">
         <v>83.3</v>
       </c>
+      <c r="GU56" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="GV56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35122,6 +35458,12 @@
       <c r="GT57" t="n">
         <v>195</v>
       </c>
+      <c r="GU57" t="n">
+        <v>214</v>
+      </c>
+      <c r="GV57" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35732,6 +36074,12 @@
       <c r="GT58" t="n">
         <v>176</v>
       </c>
+      <c r="GU58" t="n">
+        <v>108</v>
+      </c>
+      <c r="GV58" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36342,6 +36690,12 @@
       <c r="GT59" t="n">
         <v>371</v>
       </c>
+      <c r="GU59" t="n">
+        <v>322</v>
+      </c>
+      <c r="GV59" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36952,6 +37306,12 @@
       <c r="GT60" t="n">
         <v>1.11</v>
       </c>
+      <c r="GU60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="GV60" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37562,6 +37922,12 @@
       <c r="GT61" t="n">
         <v>79</v>
       </c>
+      <c r="GU61" t="n">
+        <v>119</v>
+      </c>
+      <c r="GV61" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38172,6 +38538,12 @@
       <c r="GT62" t="n">
         <v>58</v>
       </c>
+      <c r="GU62" t="n">
+        <v>35</v>
+      </c>
+      <c r="GV62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38782,6 +39154,12 @@
       <c r="GT63" t="n">
         <v>26</v>
       </c>
+      <c r="GU63" t="n">
+        <v>31</v>
+      </c>
+      <c r="GV63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39392,6 +39770,12 @@
       <c r="GT64" t="n">
         <v>20</v>
       </c>
+      <c r="GU64" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40002,6 +40386,12 @@
       <c r="GT65" t="n">
         <v>16</v>
       </c>
+      <c r="GU65" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40612,6 +41002,12 @@
       <c r="GT66" t="n">
         <v>13</v>
       </c>
+      <c r="GU66" t="n">
+        <v>12</v>
+      </c>
+      <c r="GV66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41222,6 +41618,12 @@
       <c r="GT67" t="n">
         <v>10</v>
       </c>
+      <c r="GU67" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -41832,6 +42234,12 @@
       <c r="GT68" t="n">
         <v>9</v>
       </c>
+      <c r="GU68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42442,6 +42850,12 @@
       <c r="GT69" t="n">
         <v>1</v>
       </c>
+      <c r="GU69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43052,6 +43466,12 @@
       <c r="GT70" t="n">
         <v>23</v>
       </c>
+      <c r="GU70" t="n">
+        <v>18</v>
+      </c>
+      <c r="GV70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43662,6 +44082,12 @@
       <c r="GT71" t="n">
         <v>56.5</v>
       </c>
+      <c r="GU71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GV71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44272,6 +44698,12 @@
       <c r="GT72" t="n">
         <v>28.54</v>
       </c>
+      <c r="GU72" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="GV72" t="n">
+        <v>39.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -44882,6 +45314,12 @@
       <c r="GT73" t="n">
         <v>16.13</v>
       </c>
+      <c r="GU73" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="GV73" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45492,6 +45930,12 @@
       <c r="GT74" t="n">
         <v>29</v>
       </c>
+      <c r="GU74" t="n">
+        <v>28</v>
+      </c>
+      <c r="GV74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46102,6 +46546,12 @@
       <c r="GT75" t="n">
         <v>63</v>
       </c>
+      <c r="GU75" t="n">
+        <v>35</v>
+      </c>
+      <c r="GV75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46712,6 +47162,12 @@
       <c r="GT76" t="n">
         <v>39</v>
       </c>
+      <c r="GU76" t="n">
+        <v>37</v>
+      </c>
+      <c r="GV76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47322,6 +47778,12 @@
       <c r="GT77" t="n">
         <v>56</v>
       </c>
+      <c r="GU77" t="n">
+        <v>35</v>
+      </c>
+      <c r="GV77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -47932,6 +48394,12 @@
       <c r="GT78" t="n">
         <v>2.43</v>
       </c>
+      <c r="GU78" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="GV78" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48542,6 +49010,12 @@
       <c r="GT79" t="n">
         <v>4.31</v>
       </c>
+      <c r="GU79" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="GV79" t="n">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49152,6 +49626,12 @@
       <c r="GT80" t="n">
         <v>39.3</v>
       </c>
+      <c r="GU80" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="GV80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -49762,6 +50242,12 @@
       <c r="GT81" t="n">
         <v>23.2</v>
       </c>
+      <c r="GU81" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="GV81" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50372,6 +50858,12 @@
       <c r="GT82" t="n">
         <v>188.8</v>
       </c>
+      <c r="GU82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="GV82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -50982,6 +51474,12 @@
       <c r="GT83" t="n">
         <v>88.3</v>
       </c>
+      <c r="GU83" t="n">
+        <v>89</v>
+      </c>
+      <c r="GV83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51592,6 +52090,12 @@
       <c r="GT84" t="n">
         <v>26.24</v>
       </c>
+      <c r="GU84" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV84" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52202,6 +52706,12 @@
       <c r="GT85" t="n">
         <v>118.4</v>
       </c>
+      <c r="GU85" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="GV85" t="n">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -52812,6 +53322,12 @@
       <c r="GT86" t="n">
         <v>5</v>
       </c>
+      <c r="GU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53422,6 +53938,12 @@
       <c r="GT87" t="n">
         <v>5</v>
       </c>
+      <c r="GU87" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54032,6 +54554,12 @@
       <c r="GT88" t="n">
         <v>5</v>
       </c>
+      <c r="GU88" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54642,6 +55170,12 @@
       <c r="GT89" t="n">
         <v>7</v>
       </c>
+      <c r="GU89" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55252,6 +55786,12 @@
       <c r="GT90" t="n">
         <v>139</v>
       </c>
+      <c r="GU90" t="n">
+        <v>93</v>
+      </c>
+      <c r="GV90" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -55862,6 +56402,12 @@
       <c r="GT91" t="n">
         <v>224</v>
       </c>
+      <c r="GU91" t="n">
+        <v>222</v>
+      </c>
+      <c r="GV91" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -56472,6 +57018,12 @@
       <c r="GT92" t="n">
         <v>264</v>
       </c>
+      <c r="GU92" t="n">
+        <v>248</v>
+      </c>
+      <c r="GV92" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57082,6 +57634,12 @@
       <c r="GT93" t="n">
         <v>71.2</v>
       </c>
+      <c r="GU93" t="n">
+        <v>77</v>
+      </c>
+      <c r="GV93" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57692,6 +58250,12 @@
       <c r="GT94" t="n">
         <v>63</v>
       </c>
+      <c r="GU94" t="n">
+        <v>35</v>
+      </c>
+      <c r="GV94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58302,6 +58866,12 @@
       <c r="GT95" t="n">
         <v>12</v>
       </c>
+      <c r="GU95" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -58912,6 +59482,12 @@
       <c r="GT96" t="n">
         <v>9</v>
       </c>
+      <c r="GU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -59522,6 +60098,12 @@
       <c r="GT97" t="n">
         <v>29</v>
       </c>
+      <c r="GU97" t="n">
+        <v>28</v>
+      </c>
+      <c r="GV97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60132,6 +60714,12 @@
       <c r="GT98" t="n">
         <v>39</v>
       </c>
+      <c r="GU98" t="n">
+        <v>37</v>
+      </c>
+      <c r="GV98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -60742,6 +61330,12 @@
       <c r="GT99" t="n">
         <v>52</v>
       </c>
+      <c r="GU99" t="n">
+        <v>45</v>
+      </c>
+      <c r="GV99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61352,6 +61946,12 @@
       <c r="GT100" t="n">
         <v>7</v>
       </c>
+      <c r="GU100" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -61962,6 +62562,12 @@
       <c r="GT101" t="n">
         <v>10</v>
       </c>
+      <c r="GU101" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -62572,8 +63178,14 @@
       <c r="GT102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="GU102" t="n">
+        <v>75</v>
+      </c>
+      <c r="GV102" t="n">
+        <v>57.1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GV102"/>
+  <dimension ref="A1:GW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,6 +968,9 @@
       <c r="GV1" t="n">
         <v>10129</v>
       </c>
+      <c r="GW1" t="n">
+        <v>10151</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1584,6 +1587,9 @@
       <c r="GV2" t="n">
         <v>2020</v>
       </c>
+      <c r="GW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2200,6 +2206,9 @@
       <c r="GV3" t="n">
         <v>2</v>
       </c>
+      <c r="GW3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2816,6 +2825,9 @@
       <c r="GV4" t="n">
         <v>1</v>
       </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3432,6 +3444,9 @@
       <c r="GV5" t="n">
         <v>1</v>
       </c>
+      <c r="GW5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4048,6 +4063,9 @@
       <c r="GV6" t="n">
         <v>54</v>
       </c>
+      <c r="GW6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4664,6 +4682,9 @@
       <c r="GV7" t="n">
         <v>53</v>
       </c>
+      <c r="GW7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5280,6 +5301,9 @@
       <c r="GV8" t="n">
         <v>1</v>
       </c>
+      <c r="GW8" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5896,6 +5920,9 @@
       <c r="GV9" t="n">
         <v>1</v>
       </c>
+      <c r="GW9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6512,6 +6539,9 @@
       <c r="GV10" t="n">
         <v>3</v>
       </c>
+      <c r="GW10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7128,6 +7158,9 @@
       <c r="GV11" t="n">
         <v>173</v>
       </c>
+      <c r="GW11" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7744,6 +7777,9 @@
       <c r="GV12" t="n">
         <v>134</v>
       </c>
+      <c r="GW12" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8360,6 +8396,9 @@
       <c r="GV13" t="n">
         <v>307</v>
       </c>
+      <c r="GW13" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8976,6 +9015,9 @@
       <c r="GV14" t="n">
         <v>1.29</v>
       </c>
+      <c r="GW14" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9592,6 +9634,9 @@
       <c r="GV15" t="n">
         <v>69</v>
       </c>
+      <c r="GW15" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10208,6 +10253,9 @@
       <c r="GV16" t="n">
         <v>50</v>
       </c>
+      <c r="GW16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10824,6 +10872,9 @@
       <c r="GV17" t="n">
         <v>34</v>
       </c>
+      <c r="GW17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11440,6 +11491,9 @@
       <c r="GV18" t="n">
         <v>18</v>
       </c>
+      <c r="GW18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12056,6 +12110,9 @@
       <c r="GV19" t="n">
         <v>13</v>
       </c>
+      <c r="GW19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12672,6 +12729,9 @@
       <c r="GV20" t="n">
         <v>8</v>
       </c>
+      <c r="GW20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13288,6 +13348,9 @@
       <c r="GV21" t="n">
         <v>7</v>
       </c>
+      <c r="GW21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13904,6 +13967,9 @@
       <c r="GV22" t="n">
         <v>6</v>
       </c>
+      <c r="GW22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14520,6 +14586,9 @@
       <c r="GV23" t="n">
         <v>0</v>
       </c>
+      <c r="GW23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15136,6 +15205,9 @@
       <c r="GV24" t="n">
         <v>14</v>
       </c>
+      <c r="GW24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15752,6 +15824,9 @@
       <c r="GV25" t="n">
         <v>57.1</v>
       </c>
+      <c r="GW25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16368,6 +16443,9 @@
       <c r="GV26" t="n">
         <v>38.38</v>
       </c>
+      <c r="GW26" t="n">
+        <v>44.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16984,6 +17062,9 @@
       <c r="GV27" t="n">
         <v>21.93</v>
       </c>
+      <c r="GW27" t="n">
+        <v>19.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17600,6 +17681,9 @@
       <c r="GV28" t="n">
         <v>30</v>
       </c>
+      <c r="GW28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18216,6 +18300,9 @@
       <c r="GV29" t="n">
         <v>40</v>
       </c>
+      <c r="GW29" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18832,6 +18919,9 @@
       <c r="GV30" t="n">
         <v>39</v>
       </c>
+      <c r="GW30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19448,6 +19538,9 @@
       <c r="GV31" t="n">
         <v>40</v>
       </c>
+      <c r="GW31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20064,6 +20157,9 @@
       <c r="GV32" t="n">
         <v>2.86</v>
       </c>
+      <c r="GW32" t="n">
+        <v>3.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20680,6 +20776,9 @@
       <c r="GV33" t="n">
         <v>5</v>
       </c>
+      <c r="GW33" t="n">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21296,6 +21395,9 @@
       <c r="GV34" t="n">
         <v>35</v>
       </c>
+      <c r="GW34" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21912,6 +22014,9 @@
       <c r="GV35" t="n">
         <v>20</v>
       </c>
+      <c r="GW35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22528,6 +22633,9 @@
       <c r="GV36" t="n">
         <v>188</v>
       </c>
+      <c r="GW36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23144,6 +23252,9 @@
       <c r="GV37" t="n">
         <v>87.5</v>
       </c>
+      <c r="GW37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23760,6 +23871,9 @@
       <c r="GV38" t="n">
         <v>25.49</v>
       </c>
+      <c r="GW38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24376,6 +24490,9 @@
       <c r="GV39" t="n">
         <v>98.2</v>
       </c>
+      <c r="GW39" t="n">
+        <v>82.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24992,6 +25109,9 @@
       <c r="GV40" t="n">
         <v>4</v>
       </c>
+      <c r="GW40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25608,6 +25728,9 @@
       <c r="GV41" t="n">
         <v>10</v>
       </c>
+      <c r="GW41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26224,6 +26347,9 @@
       <c r="GV42" t="n">
         <v>4</v>
       </c>
+      <c r="GW42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26840,6 +26966,9 @@
       <c r="GV43" t="n">
         <v>4</v>
       </c>
+      <c r="GW43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27456,6 +27585,9 @@
       <c r="GV44" t="n">
         <v>114</v>
       </c>
+      <c r="GW44" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28072,6 +28204,9 @@
       <c r="GV45" t="n">
         <v>187</v>
       </c>
+      <c r="GW45" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28688,6 +28823,9 @@
       <c r="GV46" t="n">
         <v>230</v>
       </c>
+      <c r="GW46" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29304,6 +29442,9 @@
       <c r="GV47" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="GW47" t="n">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29920,6 +30061,9 @@
       <c r="GV48" t="n">
         <v>40</v>
       </c>
+      <c r="GW48" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30536,6 +30680,9 @@
       <c r="GV49" t="n">
         <v>6</v>
       </c>
+      <c r="GW49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31152,6 +31299,9 @@
       <c r="GV50" t="n">
         <v>10</v>
       </c>
+      <c r="GW50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31768,6 +31918,9 @@
       <c r="GV51" t="n">
         <v>30</v>
       </c>
+      <c r="GW51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32384,6 +32537,9 @@
       <c r="GV52" t="n">
         <v>39</v>
       </c>
+      <c r="GW52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33000,6 +33156,9 @@
       <c r="GV53" t="n">
         <v>42</v>
       </c>
+      <c r="GW53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33616,6 +33775,9 @@
       <c r="GV54" t="n">
         <v>2</v>
       </c>
+      <c r="GW54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34232,6 +34394,9 @@
       <c r="GV55" t="n">
         <v>7</v>
       </c>
+      <c r="GW55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34848,6 +35013,9 @@
       <c r="GV56" t="n">
         <v>87.5</v>
       </c>
+      <c r="GW56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35464,6 +35632,9 @@
       <c r="GV57" t="n">
         <v>183</v>
       </c>
+      <c r="GW57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36080,6 +36251,9 @@
       <c r="GV58" t="n">
         <v>96</v>
       </c>
+      <c r="GW58" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36696,6 +36870,9 @@
       <c r="GV59" t="n">
         <v>279</v>
       </c>
+      <c r="GW59" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37312,6 +37489,9 @@
       <c r="GV60" t="n">
         <v>1.91</v>
       </c>
+      <c r="GW60" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37928,6 +38108,9 @@
       <c r="GV61" t="n">
         <v>73</v>
       </c>
+      <c r="GW61" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38544,6 +38727,9 @@
       <c r="GV62" t="n">
         <v>41</v>
       </c>
+      <c r="GW62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39160,6 +39346,9 @@
       <c r="GV63" t="n">
         <v>26</v>
       </c>
+      <c r="GW63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39776,6 +39965,9 @@
       <c r="GV64" t="n">
         <v>13</v>
       </c>
+      <c r="GW64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40392,6 +40584,9 @@
       <c r="GV65" t="n">
         <v>18</v>
       </c>
+      <c r="GW65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41008,6 +41203,9 @@
       <c r="GV66" t="n">
         <v>7</v>
       </c>
+      <c r="GW66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41624,6 +41822,9 @@
       <c r="GV67" t="n">
         <v>4</v>
       </c>
+      <c r="GW67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42240,6 +42441,9 @@
       <c r="GV68" t="n">
         <v>11</v>
       </c>
+      <c r="GW68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42856,6 +43060,9 @@
       <c r="GV69" t="n">
         <v>0</v>
       </c>
+      <c r="GW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43472,6 +43679,9 @@
       <c r="GV70" t="n">
         <v>18</v>
       </c>
+      <c r="GW70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44088,6 +44298,9 @@
       <c r="GV71" t="n">
         <v>38.9</v>
       </c>
+      <c r="GW71" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44704,6 +44917,9 @@
       <c r="GV72" t="n">
         <v>39.86</v>
       </c>
+      <c r="GW72" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45320,6 +45536,9 @@
       <c r="GV73" t="n">
         <v>15.5</v>
       </c>
+      <c r="GW73" t="n">
+        <v>26.25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45936,6 +46155,9 @@
       <c r="GV74" t="n">
         <v>29</v>
       </c>
+      <c r="GW74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46552,6 +46774,9 @@
       <c r="GV75" t="n">
         <v>44</v>
       </c>
+      <c r="GW75" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47168,6 +47393,9 @@
       <c r="GV76" t="n">
         <v>31</v>
       </c>
+      <c r="GW76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47784,6 +48012,9 @@
       <c r="GV77" t="n">
         <v>48</v>
       </c>
+      <c r="GW77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48400,6 +48631,9 @@
       <c r="GV78" t="n">
         <v>2.67</v>
       </c>
+      <c r="GW78" t="n">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49016,6 +49250,9 @@
       <c r="GV79" t="n">
         <v>6.86</v>
       </c>
+      <c r="GW79" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49632,6 +49869,9 @@
       <c r="GV80" t="n">
         <v>37.5</v>
       </c>
+      <c r="GW80" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50248,6 +50488,9 @@
       <c r="GV81" t="n">
         <v>14.6</v>
       </c>
+      <c r="GW81" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50864,6 +51107,9 @@
       <c r="GV82" t="n">
         <v>188.4</v>
       </c>
+      <c r="GW82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51480,6 +51726,9 @@
       <c r="GV83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="GW83" t="n">
+        <v>89.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52096,6 +52345,9 @@
       <c r="GV84" t="n">
         <v>26.49</v>
       </c>
+      <c r="GW84" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52712,6 +52964,9 @@
       <c r="GV85" t="n">
         <v>106.8</v>
       </c>
+      <c r="GW85" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53328,6 +53583,9 @@
       <c r="GV86" t="n">
         <v>6</v>
       </c>
+      <c r="GW86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53944,6 +54202,9 @@
       <c r="GV87" t="n">
         <v>8</v>
       </c>
+      <c r="GW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54560,6 +54821,9 @@
       <c r="GV88" t="n">
         <v>3</v>
       </c>
+      <c r="GW88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55176,6 +55440,9 @@
       <c r="GV89" t="n">
         <v>5</v>
       </c>
+      <c r="GW89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55792,6 +56059,9 @@
       <c r="GV90" t="n">
         <v>111</v>
       </c>
+      <c r="GW90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56408,6 +56678,9 @@
       <c r="GV91" t="n">
         <v>162</v>
       </c>
+      <c r="GW91" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57024,6 +57297,9 @@
       <c r="GV92" t="n">
         <v>195</v>
       </c>
+      <c r="GW92" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57640,6 +57916,9 @@
       <c r="GV93" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="GW93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58256,6 +58535,9 @@
       <c r="GV94" t="n">
         <v>44</v>
       </c>
+      <c r="GW94" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58872,6 +59154,9 @@
       <c r="GV95" t="n">
         <v>13</v>
       </c>
+      <c r="GW95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59488,6 +59773,9 @@
       <c r="GV96" t="n">
         <v>8</v>
       </c>
+      <c r="GW96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60104,6 +60392,9 @@
       <c r="GV97" t="n">
         <v>29</v>
       </c>
+      <c r="GW97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60720,6 +61011,9 @@
       <c r="GV98" t="n">
         <v>31</v>
       </c>
+      <c r="GW98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61336,6 +61630,9 @@
       <c r="GV99" t="n">
         <v>42</v>
       </c>
+      <c r="GW99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61952,6 +62249,9 @@
       <c r="GV100" t="n">
         <v>4</v>
       </c>
+      <c r="GW100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62568,6 +62868,9 @@
       <c r="GV101" t="n">
         <v>4</v>
       </c>
+      <c r="GW101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63184,8 +63487,11 @@
       <c r="GV102" t="n">
         <v>57.1</v>
       </c>
+      <c r="GW102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GW102"/>
+  <dimension ref="A1:GX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,9 @@
       <c r="GW1" t="n">
         <v>10151</v>
       </c>
+      <c r="GX1" t="n">
+        <v>10189</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1590,6 +1593,9 @@
       <c r="GW2" t="n">
         <v>2020</v>
       </c>
+      <c r="GX2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2209,6 +2215,9 @@
       <c r="GW3" t="n">
         <v>4</v>
       </c>
+      <c r="GX3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2828,6 +2837,9 @@
       <c r="GW4" t="n">
         <v>0</v>
       </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3447,6 +3459,9 @@
       <c r="GW5" t="n">
         <v>1</v>
       </c>
+      <c r="GX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4066,6 +4081,9 @@
       <c r="GW6" t="n">
         <v>44</v>
       </c>
+      <c r="GX6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4685,6 +4703,9 @@
       <c r="GW7" t="n">
         <v>47</v>
       </c>
+      <c r="GX7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5304,6 +5325,9 @@
       <c r="GW8" t="n">
         <v>-3</v>
       </c>
+      <c r="GX8" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5923,6 +5947,9 @@
       <c r="GW9" t="n">
         <v>0</v>
       </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6542,6 +6569,9 @@
       <c r="GW10" t="n">
         <v>7</v>
       </c>
+      <c r="GX10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7161,6 +7191,9 @@
       <c r="GW11" t="n">
         <v>152</v>
       </c>
+      <c r="GX11" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7780,6 +7813,9 @@
       <c r="GW12" t="n">
         <v>116</v>
       </c>
+      <c r="GX12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8399,6 +8435,9 @@
       <c r="GW13" t="n">
         <v>268</v>
       </c>
+      <c r="GX13" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9018,6 +9057,9 @@
       <c r="GW14" t="n">
         <v>1.31</v>
       </c>
+      <c r="GX14" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9637,6 +9679,9 @@
       <c r="GW15" t="n">
         <v>52</v>
       </c>
+      <c r="GX15" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10256,6 +10301,9 @@
       <c r="GW16" t="n">
         <v>47</v>
       </c>
+      <c r="GX16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10875,6 +10923,9 @@
       <c r="GW17" t="n">
         <v>33</v>
       </c>
+      <c r="GX17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11494,6 +11545,9 @@
       <c r="GW18" t="n">
         <v>19</v>
       </c>
+      <c r="GX18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12113,6 +12167,9 @@
       <c r="GW19" t="n">
         <v>16</v>
       </c>
+      <c r="GX19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12732,6 +12789,9 @@
       <c r="GW20" t="n">
         <v>6</v>
       </c>
+      <c r="GX20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13351,6 +13411,9 @@
       <c r="GW21" t="n">
         <v>3</v>
       </c>
+      <c r="GX21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13970,6 +14033,9 @@
       <c r="GW22" t="n">
         <v>7</v>
       </c>
+      <c r="GX22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14589,6 +14655,9 @@
       <c r="GW23" t="n">
         <v>1</v>
       </c>
+      <c r="GX23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15208,6 +15277,9 @@
       <c r="GW24" t="n">
         <v>14</v>
       </c>
+      <c r="GX24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15827,6 +15899,9 @@
       <c r="GW25" t="n">
         <v>42.9</v>
       </c>
+      <c r="GX25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16446,6 +16521,9 @@
       <c r="GW26" t="n">
         <v>44.67</v>
       </c>
+      <c r="GX26" t="n">
+        <v>40.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17065,6 +17143,9 @@
       <c r="GW27" t="n">
         <v>19.14</v>
       </c>
+      <c r="GX27" t="n">
+        <v>26.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17684,6 +17765,9 @@
       <c r="GW28" t="n">
         <v>32</v>
       </c>
+      <c r="GX28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18303,6 +18387,9 @@
       <c r="GW29" t="n">
         <v>33</v>
       </c>
+      <c r="GX29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18922,6 +19009,9 @@
       <c r="GW30" t="n">
         <v>30</v>
       </c>
+      <c r="GX30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19541,6 +19631,9 @@
       <c r="GW31" t="n">
         <v>46</v>
       </c>
+      <c r="GX31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20160,6 +20253,9 @@
       <c r="GW32" t="n">
         <v>3.29</v>
       </c>
+      <c r="GX32" t="n">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20779,6 +20875,9 @@
       <c r="GW33" t="n">
         <v>7.67</v>
       </c>
+      <c r="GX33" t="n">
+        <v>5.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21398,6 +21497,9 @@
       <c r="GW34" t="n">
         <v>28.3</v>
       </c>
+      <c r="GX34" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22017,6 +22119,9 @@
       <c r="GW35" t="n">
         <v>13</v>
       </c>
+      <c r="GX35" t="n">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22636,6 +22741,9 @@
       <c r="GW36" t="n">
         <v>187.4</v>
       </c>
+      <c r="GX36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23255,6 +23363,9 @@
       <c r="GW37" t="n">
         <v>87.2</v>
       </c>
+      <c r="GX37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23874,6 +23985,9 @@
       <c r="GW38" t="n">
         <v>25.33</v>
       </c>
+      <c r="GX38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24493,6 +24607,9 @@
       <c r="GW39" t="n">
         <v>82.7</v>
       </c>
+      <c r="GX39" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25112,6 +25229,9 @@
       <c r="GW40" t="n">
         <v>7</v>
       </c>
+      <c r="GX40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25731,6 +25851,9 @@
       <c r="GW41" t="n">
         <v>8</v>
       </c>
+      <c r="GX41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26350,6 +26473,9 @@
       <c r="GW42" t="n">
         <v>5</v>
       </c>
+      <c r="GX42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26969,6 +27095,9 @@
       <c r="GW43" t="n">
         <v>2</v>
       </c>
+      <c r="GX43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27588,6 +27717,9 @@
       <c r="GW44" t="n">
         <v>115</v>
       </c>
+      <c r="GX44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28207,6 +28339,9 @@
       <c r="GW45" t="n">
         <v>147</v>
       </c>
+      <c r="GX45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28826,6 +28961,9 @@
       <c r="GW46" t="n">
         <v>170</v>
       </c>
+      <c r="GX46" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29445,6 +29583,9 @@
       <c r="GW47" t="n">
         <v>63.4</v>
       </c>
+      <c r="GX47" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30064,6 +30205,9 @@
       <c r="GW48" t="n">
         <v>33</v>
       </c>
+      <c r="GX48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30683,6 +30827,9 @@
       <c r="GW49" t="n">
         <v>6</v>
       </c>
+      <c r="GX49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31302,6 +31449,9 @@
       <c r="GW50" t="n">
         <v>6</v>
       </c>
+      <c r="GX50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31921,6 +32071,9 @@
       <c r="GW51" t="n">
         <v>32</v>
       </c>
+      <c r="GX51" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32540,6 +32693,9 @@
       <c r="GW52" t="n">
         <v>30</v>
       </c>
+      <c r="GX52" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33159,6 +33315,9 @@
       <c r="GW53" t="n">
         <v>46</v>
       </c>
+      <c r="GX53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33778,6 +33937,9 @@
       <c r="GW54" t="n">
         <v>0</v>
       </c>
+      <c r="GX54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34397,6 +34559,9 @@
       <c r="GW55" t="n">
         <v>3</v>
       </c>
+      <c r="GX55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35016,6 +35181,9 @@
       <c r="GW56" t="n">
         <v>50</v>
       </c>
+      <c r="GX56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35635,6 +35803,9 @@
       <c r="GW57" t="n">
         <v>209</v>
       </c>
+      <c r="GX57" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36254,6 +36425,9 @@
       <c r="GW58" t="n">
         <v>106</v>
       </c>
+      <c r="GX58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36873,6 +37047,9 @@
       <c r="GW59" t="n">
         <v>315</v>
       </c>
+      <c r="GX59" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37492,6 +37669,9 @@
       <c r="GW60" t="n">
         <v>1.97</v>
       </c>
+      <c r="GX60" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38111,6 +38291,9 @@
       <c r="GW61" t="n">
         <v>112</v>
       </c>
+      <c r="GX61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38730,6 +38913,9 @@
       <c r="GW62" t="n">
         <v>52</v>
       </c>
+      <c r="GX62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39349,6 +39535,9 @@
       <c r="GW63" t="n">
         <v>28</v>
       </c>
+      <c r="GX63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39968,6 +40157,9 @@
       <c r="GW64" t="n">
         <v>16</v>
       </c>
+      <c r="GX64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40587,6 +40779,9 @@
       <c r="GW65" t="n">
         <v>19</v>
       </c>
+      <c r="GX65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41206,6 +41401,9 @@
       <c r="GW66" t="n">
         <v>7</v>
       </c>
+      <c r="GX66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41825,6 +42023,9 @@
       <c r="GW67" t="n">
         <v>7</v>
       </c>
+      <c r="GX67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42444,6 +42645,9 @@
       <c r="GW68" t="n">
         <v>4</v>
       </c>
+      <c r="GX68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43063,6 +43267,9 @@
       <c r="GW69" t="n">
         <v>1</v>
       </c>
+      <c r="GX69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43682,6 +43889,9 @@
       <c r="GW70" t="n">
         <v>12</v>
       </c>
+      <c r="GX70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44301,6 +44511,9 @@
       <c r="GW71" t="n">
         <v>58.3</v>
       </c>
+      <c r="GX71" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44920,6 +45133,9 @@
       <c r="GW72" t="n">
         <v>45</v>
       </c>
+      <c r="GX72" t="n">
+        <v>27.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45539,6 +45755,9 @@
       <c r="GW73" t="n">
         <v>26.25</v>
       </c>
+      <c r="GX73" t="n">
+        <v>17.63</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46158,6 +46377,9 @@
       <c r="GW74" t="n">
         <v>23</v>
       </c>
+      <c r="GX74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46777,6 +46999,9 @@
       <c r="GW75" t="n">
         <v>41</v>
       </c>
+      <c r="GX75" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47396,6 +47621,9 @@
       <c r="GW76" t="n">
         <v>39</v>
       </c>
+      <c r="GX76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48015,6 +48243,9 @@
       <c r="GW77" t="n">
         <v>38</v>
       </c>
+      <c r="GX77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48634,6 +48865,9 @@
       <c r="GW78" t="n">
         <v>3.17</v>
       </c>
+      <c r="GX78" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49253,6 +49487,9 @@
       <c r="GW79" t="n">
         <v>5.43</v>
       </c>
+      <c r="GX79" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49872,6 +50109,9 @@
       <c r="GW80" t="n">
         <v>28.9</v>
       </c>
+      <c r="GX80" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50491,6 +50731,9 @@
       <c r="GW81" t="n">
         <v>18.4</v>
       </c>
+      <c r="GX81" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51110,6 +51353,9 @@
       <c r="GW82" t="n">
         <v>188.1</v>
       </c>
+      <c r="GX82" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51729,6 +51975,9 @@
       <c r="GW83" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="GX83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52348,6 +52597,9 @@
       <c r="GW84" t="n">
         <v>27.41</v>
       </c>
+      <c r="GX84" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52967,6 +53219,9 @@
       <c r="GW85" t="n">
         <v>133.3</v>
       </c>
+      <c r="GX85" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53586,6 +53841,9 @@
       <c r="GW86" t="n">
         <v>6</v>
       </c>
+      <c r="GX86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54205,6 +54463,9 @@
       <c r="GW87" t="n">
         <v>5</v>
       </c>
+      <c r="GX87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54824,6 +55085,9 @@
       <c r="GW88" t="n">
         <v>1</v>
       </c>
+      <c r="GX88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55443,6 +55707,9 @@
       <c r="GW89" t="n">
         <v>10</v>
       </c>
+      <c r="GX89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56062,6 +56329,9 @@
       <c r="GW90" t="n">
         <v>108</v>
       </c>
+      <c r="GX90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56681,6 +56951,9 @@
       <c r="GW91" t="n">
         <v>201</v>
       </c>
+      <c r="GX91" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57300,6 +57573,9 @@
       <c r="GW92" t="n">
         <v>235</v>
       </c>
+      <c r="GX92" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57919,6 +58195,9 @@
       <c r="GW93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="GX93" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58538,6 +58817,9 @@
       <c r="GW94" t="n">
         <v>41</v>
       </c>
+      <c r="GX94" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59157,6 +59439,9 @@
       <c r="GW95" t="n">
         <v>7</v>
       </c>
+      <c r="GX95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59776,6 +60061,9 @@
       <c r="GW96" t="n">
         <v>9</v>
       </c>
+      <c r="GX96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60395,6 +60683,9 @@
       <c r="GW97" t="n">
         <v>23</v>
       </c>
+      <c r="GX97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61014,6 +61305,9 @@
       <c r="GW98" t="n">
         <v>39</v>
       </c>
+      <c r="GX98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61633,6 +61927,9 @@
       <c r="GW99" t="n">
         <v>44</v>
       </c>
+      <c r="GX99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62252,6 +62549,9 @@
       <c r="GW100" t="n">
         <v>1</v>
       </c>
+      <c r="GX100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62871,6 +63171,9 @@
       <c r="GW101" t="n">
         <v>7</v>
       </c>
+      <c r="GX101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63490,6 +63793,9 @@
       <c r="GW102" t="n">
         <v>100</v>
       </c>
+      <c r="GX102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,15 @@
       <c r="GX1" t="n">
         <v>10189</v>
       </c>
+      <c r="GY1" t="n">
+        <v>10213</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>10224</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>10234</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1596,6 +1605,15 @@
       <c r="GX2" t="n">
         <v>2020</v>
       </c>
+      <c r="GY2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2218,6 +2236,15 @@
       <c r="GX3" t="n">
         <v>5</v>
       </c>
+      <c r="GY3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2840,6 +2867,15 @@
       <c r="GX4" t="n">
         <v>0</v>
       </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3462,6 +3498,15 @@
       <c r="GX5" t="n">
         <v>1</v>
       </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4084,6 +4129,15 @@
       <c r="GX6" t="n">
         <v>52</v>
       </c>
+      <c r="GY6" t="n">
+        <v>80</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>91</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4706,6 +4760,15 @@
       <c r="GX7" t="n">
         <v>79</v>
       </c>
+      <c r="GY7" t="n">
+        <v>63</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>48</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5328,6 +5391,15 @@
       <c r="GX8" t="n">
         <v>-27</v>
       </c>
+      <c r="GY8" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5950,6 +6022,15 @@
       <c r="GX9" t="n">
         <v>0</v>
       </c>
+      <c r="GY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6572,6 +6653,15 @@
       <c r="GX10" t="n">
         <v>14</v>
       </c>
+      <c r="GY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7194,6 +7284,15 @@
       <c r="GX11" t="n">
         <v>167</v>
       </c>
+      <c r="GY11" t="n">
+        <v>172</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>175</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7816,6 +7915,15 @@
       <c r="GX12" t="n">
         <v>155</v>
       </c>
+      <c r="GY12" t="n">
+        <v>107</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>141</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8438,6 +8546,15 @@
       <c r="GX13" t="n">
         <v>322</v>
       </c>
+      <c r="GY13" t="n">
+        <v>279</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>316</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9060,6 +9177,15 @@
       <c r="GX14" t="n">
         <v>1.08</v>
       </c>
+      <c r="GY14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9682,6 +9808,15 @@
       <c r="GX15" t="n">
         <v>76</v>
       </c>
+      <c r="GY15" t="n">
+        <v>67</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>79</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10304,6 +10439,15 @@
       <c r="GX16" t="n">
         <v>45</v>
       </c>
+      <c r="GY16" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>47</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10926,6 +11070,15 @@
       <c r="GX17" t="n">
         <v>34</v>
       </c>
+      <c r="GY17" t="n">
+        <v>30</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11548,6 +11701,15 @@
       <c r="GX18" t="n">
         <v>19</v>
       </c>
+      <c r="GY18" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12170,6 +12332,15 @@
       <c r="GX19" t="n">
         <v>17</v>
       </c>
+      <c r="GY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12792,6 +12963,15 @@
       <c r="GX20" t="n">
         <v>8</v>
       </c>
+      <c r="GY20" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13414,6 +13594,15 @@
       <c r="GX21" t="n">
         <v>7</v>
       </c>
+      <c r="GY21" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14036,6 +14225,15 @@
       <c r="GX22" t="n">
         <v>3</v>
       </c>
+      <c r="GY22" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14658,6 +14856,15 @@
       <c r="GX23" t="n">
         <v>1</v>
       </c>
+      <c r="GY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15280,6 +15487,15 @@
       <c r="GX24" t="n">
         <v>12</v>
       </c>
+      <c r="GY24" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15902,6 +16118,15 @@
       <c r="GX25" t="n">
         <v>66.7</v>
       </c>
+      <c r="GY25" t="n">
+        <v>60</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16524,6 +16749,15 @@
       <c r="GX26" t="n">
         <v>40.25</v>
       </c>
+      <c r="GY26" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>37.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17146,6 +17380,15 @@
       <c r="GX27" t="n">
         <v>26.83</v>
       </c>
+      <c r="GY27" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>18.86</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17768,6 +18011,15 @@
       <c r="GX28" t="n">
         <v>25</v>
       </c>
+      <c r="GY28" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>31</v>
+      </c>
+      <c r="HA28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18390,6 +18642,15 @@
       <c r="GX29" t="n">
         <v>55</v>
       </c>
+      <c r="GY29" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19012,6 +19273,15 @@
       <c r="GX30" t="n">
         <v>27</v>
       </c>
+      <c r="GY30" t="n">
+        <v>26</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19634,6 +19904,15 @@
       <c r="GX31" t="n">
         <v>43</v>
       </c>
+      <c r="GY31" t="n">
+        <v>48</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>54</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20256,6 +20535,15 @@
       <c r="GX32" t="n">
         <v>3.58</v>
       </c>
+      <c r="GY32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20878,6 +21166,15 @@
       <c r="GX33" t="n">
         <v>5.38</v>
       </c>
+      <c r="GY33" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>5.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21500,6 +21797,15 @@
       <c r="GX34" t="n">
         <v>25.6</v>
       </c>
+      <c r="GY34" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22122,6 +22428,15 @@
       <c r="GX35" t="n">
         <v>18.6</v>
       </c>
+      <c r="GY35" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="HA35" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22744,6 +23059,15 @@
       <c r="GX36" t="n">
         <v>187.4</v>
       </c>
+      <c r="GY36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="HA36" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23366,6 +23690,15 @@
       <c r="GX37" t="n">
         <v>87.2</v>
       </c>
+      <c r="GY37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HA37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23988,6 +24321,15 @@
       <c r="GX38" t="n">
         <v>25.33</v>
       </c>
+      <c r="GY38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="HA38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24610,6 +24952,15 @@
       <c r="GX39" t="n">
         <v>83.7</v>
       </c>
+      <c r="GY39" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="GZ39" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="HA39" t="n">
+        <v>95.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25232,6 +25583,15 @@
       <c r="GX40" t="n">
         <v>7</v>
       </c>
+      <c r="GY40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25854,6 +26214,15 @@
       <c r="GX41" t="n">
         <v>8</v>
       </c>
+      <c r="GY41" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26476,6 +26845,15 @@
       <c r="GX42" t="n">
         <v>5</v>
       </c>
+      <c r="GY42" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27098,6 +27476,15 @@
       <c r="GX43" t="n">
         <v>2</v>
       </c>
+      <c r="GY43" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27720,6 +28107,15 @@
       <c r="GX44" t="n">
         <v>116</v>
       </c>
+      <c r="GY44" t="n">
+        <v>127</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>124</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28342,6 +28738,15 @@
       <c r="GX45" t="n">
         <v>204</v>
       </c>
+      <c r="GY45" t="n">
+        <v>146</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>192</v>
+      </c>
+      <c r="HA45" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28964,6 +29369,15 @@
       <c r="GX46" t="n">
         <v>241</v>
       </c>
+      <c r="GY46" t="n">
+        <v>190</v>
+      </c>
+      <c r="GZ46" t="n">
+        <v>243</v>
+      </c>
+      <c r="HA46" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29586,6 +30000,15 @@
       <c r="GX47" t="n">
         <v>74.8</v>
       </c>
+      <c r="GY47" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="GZ47" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HA47" t="n">
+        <v>68.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30208,6 +30631,15 @@
       <c r="GX48" t="n">
         <v>55</v>
       </c>
+      <c r="GY48" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ48" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30830,6 +31262,15 @@
       <c r="GX49" t="n">
         <v>10</v>
       </c>
+      <c r="GY49" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ49" t="n">
+        <v>19</v>
+      </c>
+      <c r="HA49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31452,6 +31893,15 @@
       <c r="GX50" t="n">
         <v>9</v>
       </c>
+      <c r="GY50" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ50" t="n">
+        <v>15</v>
+      </c>
+      <c r="HA50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32074,6 +32524,15 @@
       <c r="GX51" t="n">
         <v>25</v>
       </c>
+      <c r="GY51" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ51" t="n">
+        <v>31</v>
+      </c>
+      <c r="HA51" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32696,6 +33155,15 @@
       <c r="GX52" t="n">
         <v>27</v>
       </c>
+      <c r="GY52" t="n">
+        <v>26</v>
+      </c>
+      <c r="GZ52" t="n">
+        <v>26</v>
+      </c>
+      <c r="HA52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33318,6 +33786,15 @@
       <c r="GX53" t="n">
         <v>44</v>
       </c>
+      <c r="GY53" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ53" t="n">
+        <v>33</v>
+      </c>
+      <c r="HA53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33940,6 +34417,15 @@
       <c r="GX54" t="n">
         <v>0</v>
       </c>
+      <c r="GY54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34562,6 +35048,15 @@
       <c r="GX55" t="n">
         <v>7</v>
       </c>
+      <c r="GY55" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="HA55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35184,6 +35679,15 @@
       <c r="GX56" t="n">
         <v>87.5</v>
       </c>
+      <c r="GY56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GZ56" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="HA56" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35806,6 +36310,15 @@
       <c r="GX57" t="n">
         <v>180</v>
       </c>
+      <c r="GY57" t="n">
+        <v>168</v>
+      </c>
+      <c r="GZ57" t="n">
+        <v>159</v>
+      </c>
+      <c r="HA57" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36428,6 +36941,15 @@
       <c r="GX58" t="n">
         <v>155</v>
       </c>
+      <c r="GY58" t="n">
+        <v>113</v>
+      </c>
+      <c r="GZ58" t="n">
+        <v>123</v>
+      </c>
+      <c r="HA58" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37050,6 +37572,15 @@
       <c r="GX59" t="n">
         <v>335</v>
       </c>
+      <c r="GY59" t="n">
+        <v>281</v>
+      </c>
+      <c r="GZ59" t="n">
+        <v>282</v>
+      </c>
+      <c r="HA59" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37672,6 +38203,15 @@
       <c r="GX60" t="n">
         <v>1.16</v>
       </c>
+      <c r="GY60" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="GZ60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="HA60" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38294,6 +38834,15 @@
       <c r="GX61" t="n">
         <v>82</v>
       </c>
+      <c r="GY61" t="n">
+        <v>75</v>
+      </c>
+      <c r="GZ61" t="n">
+        <v>83</v>
+      </c>
+      <c r="HA61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38916,6 +39465,15 @@
       <c r="GX62" t="n">
         <v>37</v>
       </c>
+      <c r="GY62" t="n">
+        <v>56</v>
+      </c>
+      <c r="GZ62" t="n">
+        <v>35</v>
+      </c>
+      <c r="HA62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39538,6 +40096,15 @@
       <c r="GX63" t="n">
         <v>13</v>
       </c>
+      <c r="GY63" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ63" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40160,6 +40727,15 @@
       <c r="GX64" t="n">
         <v>17</v>
       </c>
+      <c r="GY64" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HA64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40782,6 +41358,15 @@
       <c r="GX65" t="n">
         <v>19</v>
       </c>
+      <c r="GY65" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HA65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41404,6 +41989,15 @@
       <c r="GX66" t="n">
         <v>12</v>
       </c>
+      <c r="GY66" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42026,6 +42620,15 @@
       <c r="GX67" t="n">
         <v>7</v>
       </c>
+      <c r="GY67" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42648,6 +43251,15 @@
       <c r="GX68" t="n">
         <v>5</v>
       </c>
+      <c r="GY68" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43270,6 +43882,15 @@
       <c r="GX69" t="n">
         <v>2</v>
       </c>
+      <c r="GY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43892,6 +44513,15 @@
       <c r="GX70" t="n">
         <v>19</v>
       </c>
+      <c r="GY70" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HA70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44514,6 +45144,15 @@
       <c r="GX71" t="n">
         <v>63.2</v>
       </c>
+      <c r="GY71" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ71" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HA71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45136,6 +45775,15 @@
       <c r="GX72" t="n">
         <v>27.92</v>
       </c>
+      <c r="GY72" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="HA72" t="n">
+        <v>41.57</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45758,6 +46406,15 @@
       <c r="GX73" t="n">
         <v>17.63</v>
       </c>
+      <c r="GY73" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="GZ73" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="HA73" t="n">
+        <v>16.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46380,6 +47037,15 @@
       <c r="GX74" t="n">
         <v>24</v>
       </c>
+      <c r="GY74" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ74" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47002,6 +47668,15 @@
       <c r="GX75" t="n">
         <v>45</v>
       </c>
+      <c r="GY75" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ75" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47624,6 +48299,15 @@
       <c r="GX76" t="n">
         <v>34</v>
       </c>
+      <c r="GY76" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48246,6 +48930,15 @@
       <c r="GX77" t="n">
         <v>39</v>
       </c>
+      <c r="GY77" t="n">
+        <v>35</v>
+      </c>
+      <c r="GZ77" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48868,6 +49561,15 @@
       <c r="GX78" t="n">
         <v>2.05</v>
       </c>
+      <c r="GY78" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="GZ78" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="HA78" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49490,6 +50192,15 @@
       <c r="GX79" t="n">
         <v>3.25</v>
       </c>
+      <c r="GY79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="GZ79" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="HA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50112,6 +50823,15 @@
       <c r="GX80" t="n">
         <v>43.6</v>
       </c>
+      <c r="GY80" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="GZ80" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="HA80" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50734,6 +51454,15 @@
       <c r="GX81" t="n">
         <v>30.8</v>
       </c>
+      <c r="GY81" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="GZ81" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="HA81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51356,6 +52085,15 @@
       <c r="GX82" t="n">
         <v>185.7</v>
       </c>
+      <c r="GY82" t="n">
+        <v>187</v>
+      </c>
+      <c r="GZ82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="HA82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51978,6 +52716,15 @@
       <c r="GX83" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="GY83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="GZ83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HA83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52600,6 +53347,15 @@
       <c r="GX84" t="n">
         <v>26.66</v>
       </c>
+      <c r="GY84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="GZ84" t="n">
+        <v>27</v>
+      </c>
+      <c r="HA84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53222,6 +53978,15 @@
       <c r="GX85" t="n">
         <v>120</v>
       </c>
+      <c r="GY85" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="GZ85" t="n">
+        <v>128</v>
+      </c>
+      <c r="HA85" t="n">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53844,6 +54609,15 @@
       <c r="GX86" t="n">
         <v>5</v>
       </c>
+      <c r="GY86" t="n">
+        <v>11</v>
+      </c>
+      <c r="GZ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54466,6 +55240,15 @@
       <c r="GX87" t="n">
         <v>6</v>
       </c>
+      <c r="GY87" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55088,6 +55871,15 @@
       <c r="GX88" t="n">
         <v>2</v>
       </c>
+      <c r="GY88" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55710,6 +56502,15 @@
       <c r="GX89" t="n">
         <v>9</v>
       </c>
+      <c r="GY89" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ89" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56332,6 +57133,15 @@
       <c r="GX90" t="n">
         <v>120</v>
       </c>
+      <c r="GY90" t="n">
+        <v>103</v>
+      </c>
+      <c r="GZ90" t="n">
+        <v>99</v>
+      </c>
+      <c r="HA90" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56954,6 +57764,15 @@
       <c r="GX91" t="n">
         <v>205</v>
       </c>
+      <c r="GY91" t="n">
+        <v>176</v>
+      </c>
+      <c r="GZ91" t="n">
+        <v>183</v>
+      </c>
+      <c r="HA91" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57576,6 +58395,15 @@
       <c r="GX92" t="n">
         <v>245</v>
       </c>
+      <c r="GY92" t="n">
+        <v>207</v>
+      </c>
+      <c r="GZ92" t="n">
+        <v>221</v>
+      </c>
+      <c r="HA92" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58198,6 +59026,15 @@
       <c r="GX93" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="GY93" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="GZ93" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="HA93" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58820,6 +59657,15 @@
       <c r="GX94" t="n">
         <v>45</v>
       </c>
+      <c r="GY94" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ94" t="n">
+        <v>43</v>
+      </c>
+      <c r="HA94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59442,6 +60288,15 @@
       <c r="GX95" t="n">
         <v>12</v>
       </c>
+      <c r="GY95" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HA95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60064,6 +60919,15 @@
       <c r="GX96" t="n">
         <v>13</v>
       </c>
+      <c r="GY96" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60686,6 +61550,15 @@
       <c r="GX97" t="n">
         <v>24</v>
       </c>
+      <c r="GY97" t="n">
+        <v>21</v>
+      </c>
+      <c r="GZ97" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61308,6 +62181,15 @@
       <c r="GX98" t="n">
         <v>34</v>
       </c>
+      <c r="GY98" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ98" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61930,6 +62812,15 @@
       <c r="GX99" t="n">
         <v>32</v>
       </c>
+      <c r="GY99" t="n">
+        <v>41</v>
+      </c>
+      <c r="GZ99" t="n">
+        <v>30</v>
+      </c>
+      <c r="HA99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62552,6 +63443,15 @@
       <c r="GX100" t="n">
         <v>4</v>
       </c>
+      <c r="GY100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63174,6 +64074,15 @@
       <c r="GX101" t="n">
         <v>7</v>
       </c>
+      <c r="GY101" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63796,6 +64705,15 @@
       <c r="GX102" t="n">
         <v>58.3</v>
       </c>
+      <c r="GY102" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="GZ102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HA102" t="n">
+        <v>57.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,9 @@
       <c r="HA1" t="n">
         <v>10234</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10238</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1614,6 +1617,9 @@
       <c r="HA2" t="n">
         <v>2020</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,6 +2251,9 @@
       <c r="HA3" t="n">
         <v>8</v>
       </c>
+      <c r="HB3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2876,6 +2885,9 @@
       <c r="HA4" t="n">
         <v>0</v>
       </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3507,6 +3519,9 @@
       <c r="HA5" t="n">
         <v>1</v>
       </c>
+      <c r="HB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4138,6 +4153,9 @@
       <c r="HA6" t="n">
         <v>49</v>
       </c>
+      <c r="HB6" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,6 +4787,9 @@
       <c r="HA7" t="n">
         <v>53</v>
       </c>
+      <c r="HB7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5400,6 +5421,9 @@
       <c r="HA8" t="n">
         <v>-4</v>
       </c>
+      <c r="HB8" t="n">
+        <v>-51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6031,6 +6055,9 @@
       <c r="HA9" t="n">
         <v>0</v>
       </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6662,6 +6689,9 @@
       <c r="HA10" t="n">
         <v>2</v>
       </c>
+      <c r="HB10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7293,6 +7323,9 @@
       <c r="HA11" t="n">
         <v>155</v>
       </c>
+      <c r="HB11" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7924,6 +7957,9 @@
       <c r="HA12" t="n">
         <v>109</v>
       </c>
+      <c r="HB12" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8555,6 +8591,9 @@
       <c r="HA13" t="n">
         <v>264</v>
       </c>
+      <c r="HB13" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9186,6 +9225,9 @@
       <c r="HA14" t="n">
         <v>1.42</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9817,6 +9859,9 @@
       <c r="HA15" t="n">
         <v>51</v>
       </c>
+      <c r="HB15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10448,6 +10493,9 @@
       <c r="HA16" t="n">
         <v>52</v>
       </c>
+      <c r="HB16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11079,6 +11127,9 @@
       <c r="HA17" t="n">
         <v>44</v>
       </c>
+      <c r="HB17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11710,6 +11761,9 @@
       <c r="HA18" t="n">
         <v>21</v>
       </c>
+      <c r="HB18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12341,6 +12395,9 @@
       <c r="HA19" t="n">
         <v>19</v>
       </c>
+      <c r="HB19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12972,6 +13029,9 @@
       <c r="HA20" t="n">
         <v>7</v>
       </c>
+      <c r="HB20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13603,6 +13663,9 @@
       <c r="HA21" t="n">
         <v>4</v>
       </c>
+      <c r="HB21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14234,6 +14297,9 @@
       <c r="HA22" t="n">
         <v>6</v>
       </c>
+      <c r="HB22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14865,6 +14931,9 @@
       <c r="HA23" t="n">
         <v>1</v>
       </c>
+      <c r="HB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15496,6 +15565,9 @@
       <c r="HA24" t="n">
         <v>14</v>
       </c>
+      <c r="HB24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16127,6 +16199,9 @@
       <c r="HA25" t="n">
         <v>50</v>
       </c>
+      <c r="HB25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16758,6 +16833,9 @@
       <c r="HA26" t="n">
         <v>37.71</v>
       </c>
+      <c r="HB26" t="n">
+        <v>73.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17389,6 +17467,9 @@
       <c r="HA27" t="n">
         <v>18.86</v>
       </c>
+      <c r="HB27" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18020,6 +18101,9 @@
       <c r="HA28" t="n">
         <v>22</v>
       </c>
+      <c r="HB28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18651,6 +18735,9 @@
       <c r="HA29" t="n">
         <v>50</v>
       </c>
+      <c r="HB29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19282,6 +19369,9 @@
       <c r="HA30" t="n">
         <v>33</v>
       </c>
+      <c r="HB30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19913,6 +20003,9 @@
       <c r="HA31" t="n">
         <v>41</v>
       </c>
+      <c r="HB31" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20544,6 +20637,9 @@
       <c r="HA32" t="n">
         <v>2.93</v>
       </c>
+      <c r="HB32" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21175,6 +21271,9 @@
       <c r="HA33" t="n">
         <v>5.86</v>
       </c>
+      <c r="HB33" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21806,6 +21905,9 @@
       <c r="HA34" t="n">
         <v>31.7</v>
       </c>
+      <c r="HB34" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22437,6 +22539,9 @@
       <c r="HA35" t="n">
         <v>17.1</v>
       </c>
+      <c r="HB35" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23068,6 +23173,9 @@
       <c r="HA36" t="n">
         <v>187</v>
       </c>
+      <c r="HB36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23699,6 +23807,9 @@
       <c r="HA37" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HB37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24330,6 +24441,9 @@
       <c r="HA38" t="n">
         <v>25.66</v>
       </c>
+      <c r="HB38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24961,6 +25075,9 @@
       <c r="HA39" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="HB39" t="n">
+        <v>93.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25592,6 +25709,9 @@
       <c r="HA40" t="n">
         <v>5</v>
       </c>
+      <c r="HB40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26223,6 +26343,9 @@
       <c r="HA41" t="n">
         <v>10</v>
       </c>
+      <c r="HB41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26854,6 +26977,9 @@
       <c r="HA42" t="n">
         <v>4</v>
       </c>
+      <c r="HB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27485,6 +27611,9 @@
       <c r="HA43" t="n">
         <v>3</v>
       </c>
+      <c r="HB43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28116,6 +28245,9 @@
       <c r="HA44" t="n">
         <v>120</v>
       </c>
+      <c r="HB44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28747,6 +28879,9 @@
       <c r="HA45" t="n">
         <v>142</v>
       </c>
+      <c r="HB45" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29378,6 +29513,9 @@
       <c r="HA46" t="n">
         <v>182</v>
       </c>
+      <c r="HB46" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30009,6 +30147,9 @@
       <c r="HA47" t="n">
         <v>68.90000000000001</v>
       </c>
+      <c r="HB47" t="n">
+        <v>66.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30640,6 +30781,9 @@
       <c r="HA48" t="n">
         <v>50</v>
       </c>
+      <c r="HB48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31271,6 +31415,9 @@
       <c r="HA49" t="n">
         <v>7</v>
       </c>
+      <c r="HB49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31902,6 +32049,9 @@
       <c r="HA50" t="n">
         <v>6</v>
       </c>
+      <c r="HB50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32533,6 +32683,9 @@
       <c r="HA51" t="n">
         <v>22</v>
       </c>
+      <c r="HB51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33164,6 +33317,9 @@
       <c r="HA52" t="n">
         <v>33</v>
       </c>
+      <c r="HB52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33795,6 +33951,9 @@
       <c r="HA53" t="n">
         <v>47</v>
       </c>
+      <c r="HB53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34426,6 +34585,9 @@
       <c r="HA54" t="n">
         <v>0</v>
       </c>
+      <c r="HB54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35057,6 +35219,9 @@
       <c r="HA55" t="n">
         <v>4</v>
       </c>
+      <c r="HB55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35688,6 +35853,9 @@
       <c r="HA56" t="n">
         <v>57.1</v>
       </c>
+      <c r="HB56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36319,6 +36487,9 @@
       <c r="HA57" t="n">
         <v>188</v>
       </c>
+      <c r="HB57" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36950,6 +37121,9 @@
       <c r="HA58" t="n">
         <v>103</v>
       </c>
+      <c r="HB58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37581,6 +37755,9 @@
       <c r="HA59" t="n">
         <v>291</v>
       </c>
+      <c r="HB59" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38212,6 +38389,9 @@
       <c r="HA60" t="n">
         <v>1.83</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38843,6 +39023,9 @@
       <c r="HA61" t="n">
         <v>79</v>
       </c>
+      <c r="HB61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39474,6 +39657,9 @@
       <c r="HA62" t="n">
         <v>57</v>
       </c>
+      <c r="HB62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40105,6 +40291,9 @@
       <c r="HA63" t="n">
         <v>18</v>
       </c>
+      <c r="HB63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40736,6 +40925,9 @@
       <c r="HA64" t="n">
         <v>19</v>
       </c>
+      <c r="HB64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41367,6 +41559,9 @@
       <c r="HA65" t="n">
         <v>21</v>
       </c>
+      <c r="HB65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41998,6 +42193,9 @@
       <c r="HA66" t="n">
         <v>7</v>
       </c>
+      <c r="HB66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42629,6 +42827,9 @@
       <c r="HA67" t="n">
         <v>4</v>
       </c>
+      <c r="HB67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43260,6 +43461,9 @@
       <c r="HA68" t="n">
         <v>9</v>
       </c>
+      <c r="HB68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43891,6 +44095,9 @@
       <c r="HA69" t="n">
         <v>2</v>
       </c>
+      <c r="HB69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44522,6 +44729,9 @@
       <c r="HA70" t="n">
         <v>18</v>
       </c>
+      <c r="HB70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45153,6 +45363,9 @@
       <c r="HA71" t="n">
         <v>38.9</v>
       </c>
+      <c r="HB71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45784,6 +45997,9 @@
       <c r="HA72" t="n">
         <v>41.57</v>
       </c>
+      <c r="HB72" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46415,6 +46631,9 @@
       <c r="HA73" t="n">
         <v>16.17</v>
       </c>
+      <c r="HB73" t="n">
+        <v>14.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47046,6 +47265,9 @@
       <c r="HA74" t="n">
         <v>35</v>
       </c>
+      <c r="HB74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47677,6 +47899,9 @@
       <c r="HA75" t="n">
         <v>49</v>
       </c>
+      <c r="HB75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48308,6 +48533,9 @@
       <c r="HA76" t="n">
         <v>31</v>
       </c>
+      <c r="HB76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48939,6 +49167,9 @@
       <c r="HA77" t="n">
         <v>42</v>
       </c>
+      <c r="HB77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49570,6 +49801,9 @@
       <c r="HA78" t="n">
         <v>2.33</v>
       </c>
+      <c r="HB78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50201,6 +50435,9 @@
       <c r="HA79" t="n">
         <v>6</v>
       </c>
+      <c r="HB79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50832,6 +51069,9 @@
       <c r="HA80" t="n">
         <v>38.1</v>
       </c>
+      <c r="HB80" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51463,6 +51703,9 @@
       <c r="HA81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HB81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52094,6 +52337,9 @@
       <c r="HA82" t="n">
         <v>188.6</v>
       </c>
+      <c r="HB82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52725,6 +52971,9 @@
       <c r="HA83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="HB83" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53356,6 +53605,9 @@
       <c r="HA84" t="n">
         <v>25.41</v>
       </c>
+      <c r="HB84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53987,6 +54239,9 @@
       <c r="HA85" t="n">
         <v>100.5</v>
       </c>
+      <c r="HB85" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54618,6 +54873,9 @@
       <c r="HA86" t="n">
         <v>5</v>
       </c>
+      <c r="HB86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55249,6 +55507,9 @@
       <c r="HA87" t="n">
         <v>6</v>
       </c>
+      <c r="HB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55880,6 +56141,9 @@
       <c r="HA88" t="n">
         <v>6</v>
       </c>
+      <c r="HB88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56511,6 +56775,9 @@
       <c r="HA89" t="n">
         <v>5</v>
       </c>
+      <c r="HB89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57142,6 +57409,9 @@
       <c r="HA90" t="n">
         <v>125</v>
       </c>
+      <c r="HB90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57773,6 +58043,9 @@
       <c r="HA91" t="n">
         <v>164</v>
       </c>
+      <c r="HB91" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58404,6 +58677,9 @@
       <c r="HA92" t="n">
         <v>194</v>
       </c>
+      <c r="HB92" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59035,6 +59311,9 @@
       <c r="HA93" t="n">
         <v>66.7</v>
       </c>
+      <c r="HB93" t="n">
+        <v>78.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59666,6 +59945,9 @@
       <c r="HA94" t="n">
         <v>49</v>
       </c>
+      <c r="HB94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60297,6 +60579,9 @@
       <c r="HA95" t="n">
         <v>9</v>
       </c>
+      <c r="HB95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60928,6 +61213,9 @@
       <c r="HA96" t="n">
         <v>7</v>
       </c>
+      <c r="HB96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61559,6 +61847,9 @@
       <c r="HA97" t="n">
         <v>35</v>
       </c>
+      <c r="HB97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62190,6 +62481,9 @@
       <c r="HA98" t="n">
         <v>31</v>
       </c>
+      <c r="HB98" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62821,6 +63115,9 @@
       <c r="HA99" t="n">
         <v>51</v>
       </c>
+      <c r="HB99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63452,6 +63749,9 @@
       <c r="HA100" t="n">
         <v>5</v>
       </c>
+      <c r="HB100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64083,6 +64383,9 @@
       <c r="HA101" t="n">
         <v>4</v>
       </c>
+      <c r="HB101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64714,8 +65017,11 @@
       <c r="HA102" t="n">
         <v>57.1</v>
       </c>
+      <c r="HB102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,6 +986,15 @@
       <c r="HB1" t="n">
         <v>10238</v>
       </c>
+      <c r="HC1" t="n">
+        <v>10248</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>10255</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>10263</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1620,6 +1629,15 @@
       <c r="HB2" t="n">
         <v>2020</v>
       </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2254,6 +2272,15 @@
       <c r="HB3" t="n">
         <v>9</v>
       </c>
+      <c r="HC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2888,6 +2915,15 @@
       <c r="HB4" t="n">
         <v>0</v>
       </c>
+      <c r="HC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3522,6 +3558,15 @@
       <c r="HB5" t="n">
         <v>1</v>
       </c>
+      <c r="HC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4156,6 +4201,15 @@
       <c r="HB6" t="n">
         <v>32</v>
       </c>
+      <c r="HC6" t="n">
+        <v>88</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>92</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4790,6 +4844,15 @@
       <c r="HB7" t="n">
         <v>83</v>
       </c>
+      <c r="HC7" t="n">
+        <v>37</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>35</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5424,6 +5487,15 @@
       <c r="HB8" t="n">
         <v>-51</v>
       </c>
+      <c r="HC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>57</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6058,6 +6130,15 @@
       <c r="HB9" t="n">
         <v>0</v>
       </c>
+      <c r="HC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6692,6 +6773,15 @@
       <c r="HB10" t="n">
         <v>13</v>
       </c>
+      <c r="HC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7326,6 +7416,15 @@
       <c r="HB11" t="n">
         <v>150</v>
       </c>
+      <c r="HC11" t="n">
+        <v>176</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>194</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7960,6 +8059,15 @@
       <c r="HB12" t="n">
         <v>145</v>
       </c>
+      <c r="HC12" t="n">
+        <v>114</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>148</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8594,6 +8702,15 @@
       <c r="HB13" t="n">
         <v>295</v>
       </c>
+      <c r="HC13" t="n">
+        <v>290</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>342</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9228,6 +9345,15 @@
       <c r="HB14" t="n">
         <v>1.03</v>
       </c>
+      <c r="HC14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9862,6 +9988,15 @@
       <c r="HB15" t="n">
         <v>59</v>
       </c>
+      <c r="HC15" t="n">
+        <v>66</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>82</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10496,6 +10631,15 @@
       <c r="HB16" t="n">
         <v>42</v>
       </c>
+      <c r="HC16" t="n">
+        <v>56</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11130,6 +11274,15 @@
       <c r="HB17" t="n">
         <v>44</v>
       </c>
+      <c r="HC17" t="n">
+        <v>43</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11764,6 +11917,15 @@
       <c r="HB18" t="n">
         <v>16</v>
       </c>
+      <c r="HC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12398,6 +12560,15 @@
       <c r="HB19" t="n">
         <v>23</v>
       </c>
+      <c r="HC19" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13032,6 +13203,15 @@
       <c r="HB20" t="n">
         <v>4</v>
       </c>
+      <c r="HC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13666,6 +13846,15 @@
       <c r="HB21" t="n">
         <v>4</v>
       </c>
+      <c r="HC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14300,6 +14489,15 @@
       <c r="HB22" t="n">
         <v>7</v>
       </c>
+      <c r="HC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>14</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14934,6 +15132,15 @@
       <c r="HB23" t="n">
         <v>1</v>
       </c>
+      <c r="HC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15568,6 +15775,15 @@
       <c r="HB24" t="n">
         <v>12</v>
       </c>
+      <c r="HC24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>27</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16202,6 +16418,15 @@
       <c r="HB25" t="n">
         <v>33.3</v>
       </c>
+      <c r="HC25" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16836,6 +17061,15 @@
       <c r="HB26" t="n">
         <v>73.75</v>
       </c>
+      <c r="HC26" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>20.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17470,6 +17704,15 @@
       <c r="HB27" t="n">
         <v>24.58</v>
       </c>
+      <c r="HC27" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="HD27" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18104,6 +18347,15 @@
       <c r="HB28" t="n">
         <v>30</v>
       </c>
+      <c r="HC28" t="n">
+        <v>35</v>
+      </c>
+      <c r="HD28" t="n">
+        <v>18</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18738,6 +18990,15 @@
       <c r="HB29" t="n">
         <v>55</v>
       </c>
+      <c r="HC29" t="n">
+        <v>54</v>
+      </c>
+      <c r="HD29" t="n">
+        <v>50</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19372,6 +19633,15 @@
       <c r="HB30" t="n">
         <v>35</v>
       </c>
+      <c r="HC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD30" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20006,6 +20276,15 @@
       <c r="HB31" t="n">
         <v>31</v>
       </c>
+      <c r="HC31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HD31" t="n">
+        <v>58</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20640,6 +20919,15 @@
       <c r="HB32" t="n">
         <v>2.58</v>
       </c>
+      <c r="HC32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HD32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21274,6 +21562,15 @@
       <c r="HB33" t="n">
         <v>7.75</v>
       </c>
+      <c r="HC33" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21908,6 +22205,15 @@
       <c r="HB34" t="n">
         <v>35.5</v>
       </c>
+      <c r="HC34" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22542,6 +22848,15 @@
       <c r="HB35" t="n">
         <v>12.9</v>
       </c>
+      <c r="HC35" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HD35" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23176,6 +23491,15 @@
       <c r="HB36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HC36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HD36" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23810,6 +24134,15 @@
       <c r="HB37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HC37" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="HD37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24444,6 +24777,15 @@
       <c r="HB38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HC38" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="HD38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25078,6 +25420,15 @@
       <c r="HB39" t="n">
         <v>93.09999999999999</v>
       </c>
+      <c r="HC39" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="HD39" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>94.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25712,6 +26063,15 @@
       <c r="HB40" t="n">
         <v>6</v>
       </c>
+      <c r="HC40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26346,6 +26706,15 @@
       <c r="HB41" t="n">
         <v>9</v>
       </c>
+      <c r="HC41" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26980,6 +27349,15 @@
       <c r="HB42" t="n">
         <v>4</v>
       </c>
+      <c r="HC42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27614,6 +27992,15 @@
       <c r="HB43" t="n">
         <v>3</v>
       </c>
+      <c r="HC43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28248,6 +28635,15 @@
       <c r="HB44" t="n">
         <v>117</v>
       </c>
+      <c r="HC44" t="n">
+        <v>135</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>130</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28882,6 +29278,15 @@
       <c r="HB45" t="n">
         <v>168</v>
       </c>
+      <c r="HC45" t="n">
+        <v>147</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>217</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29516,6 +29921,15 @@
       <c r="HB46" t="n">
         <v>195</v>
       </c>
+      <c r="HC46" t="n">
+        <v>192</v>
+      </c>
+      <c r="HD46" t="n">
+        <v>253</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30150,6 +30564,15 @@
       <c r="HB47" t="n">
         <v>66.09999999999999</v>
       </c>
+      <c r="HC47" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="HD47" t="n">
+        <v>74</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30784,6 +31207,15 @@
       <c r="HB48" t="n">
         <v>55</v>
       </c>
+      <c r="HC48" t="n">
+        <v>54</v>
+      </c>
+      <c r="HD48" t="n">
+        <v>50</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31418,6 +31850,15 @@
       <c r="HB49" t="n">
         <v>9</v>
       </c>
+      <c r="HC49" t="n">
+        <v>15</v>
+      </c>
+      <c r="HD49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32052,6 +32493,15 @@
       <c r="HB50" t="n">
         <v>5</v>
       </c>
+      <c r="HC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32686,6 +33136,15 @@
       <c r="HB51" t="n">
         <v>30</v>
       </c>
+      <c r="HC51" t="n">
+        <v>35</v>
+      </c>
+      <c r="HD51" t="n">
+        <v>18</v>
+      </c>
+      <c r="HE51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33320,6 +33779,15 @@
       <c r="HB52" t="n">
         <v>35</v>
       </c>
+      <c r="HC52" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD52" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33954,6 +34422,15 @@
       <c r="HB53" t="n">
         <v>45</v>
       </c>
+      <c r="HC53" t="n">
+        <v>39</v>
+      </c>
+      <c r="HD53" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34588,6 +35065,15 @@
       <c r="HB54" t="n">
         <v>0</v>
       </c>
+      <c r="HC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35222,6 +35708,15 @@
       <c r="HB55" t="n">
         <v>4</v>
       </c>
+      <c r="HC55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD55" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35856,6 +36351,15 @@
       <c r="HB56" t="n">
         <v>100</v>
       </c>
+      <c r="HC56" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="HD56" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HE56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36490,6 +36994,15 @@
       <c r="HB57" t="n">
         <v>176</v>
       </c>
+      <c r="HC57" t="n">
+        <v>133</v>
+      </c>
+      <c r="HD57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HE57" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37124,6 +37637,15 @@
       <c r="HB58" t="n">
         <v>148</v>
       </c>
+      <c r="HC58" t="n">
+        <v>119</v>
+      </c>
+      <c r="HD58" t="n">
+        <v>167</v>
+      </c>
+      <c r="HE58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37758,6 +38280,15 @@
       <c r="HB59" t="n">
         <v>324</v>
       </c>
+      <c r="HC59" t="n">
+        <v>252</v>
+      </c>
+      <c r="HD59" t="n">
+        <v>344</v>
+      </c>
+      <c r="HE59" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38392,6 +38923,15 @@
       <c r="HB60" t="n">
         <v>1.19</v>
       </c>
+      <c r="HC60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="HD60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39026,6 +39566,15 @@
       <c r="HB61" t="n">
         <v>69</v>
       </c>
+      <c r="HC61" t="n">
+        <v>38</v>
+      </c>
+      <c r="HD61" t="n">
+        <v>69</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39660,6 +40209,15 @@
       <c r="HB62" t="n">
         <v>60</v>
       </c>
+      <c r="HC62" t="n">
+        <v>67</v>
+      </c>
+      <c r="HD62" t="n">
+        <v>52</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40294,6 +40852,15 @@
       <c r="HB63" t="n">
         <v>13</v>
       </c>
+      <c r="HC63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD63" t="n">
+        <v>29</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40928,6 +41495,15 @@
       <c r="HB64" t="n">
         <v>23</v>
       </c>
+      <c r="HC64" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD64" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41562,6 +42138,15 @@
       <c r="HB65" t="n">
         <v>16</v>
       </c>
+      <c r="HC65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HD65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42196,6 +42781,15 @@
       <c r="HB66" t="n">
         <v>12</v>
       </c>
+      <c r="HC66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42830,6 +43424,15 @@
       <c r="HB67" t="n">
         <v>8</v>
       </c>
+      <c r="HC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43464,6 +44067,15 @@
       <c r="HB68" t="n">
         <v>8</v>
       </c>
+      <c r="HC68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD68" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44098,6 +44710,15 @@
       <c r="HB69" t="n">
         <v>3</v>
       </c>
+      <c r="HC69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44732,6 +45353,15 @@
       <c r="HB70" t="n">
         <v>23</v>
       </c>
+      <c r="HC70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HD70" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45366,6 +45996,15 @@
       <c r="HB71" t="n">
         <v>52.2</v>
       </c>
+      <c r="HC71" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="HD71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HE71" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46000,6 +46639,15 @@
       <c r="HB72" t="n">
         <v>27</v>
       </c>
+      <c r="HC72" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="HD72" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>52.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46634,6 +47282,15 @@
       <c r="HB73" t="n">
         <v>14.09</v>
       </c>
+      <c r="HC73" t="n">
+        <v>21</v>
+      </c>
+      <c r="HD73" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="HE73" t="n">
+        <v>22.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47268,6 +47925,15 @@
       <c r="HB74" t="n">
         <v>29</v>
       </c>
+      <c r="HC74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD74" t="n">
+        <v>22</v>
+      </c>
+      <c r="HE74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47902,6 +48568,15 @@
       <c r="HB75" t="n">
         <v>49</v>
       </c>
+      <c r="HC75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HD75" t="n">
+        <v>51</v>
+      </c>
+      <c r="HE75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48536,6 +49211,15 @@
       <c r="HB76" t="n">
         <v>24</v>
       </c>
+      <c r="HC76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD76" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49170,6 +49854,15 @@
       <c r="HB77" t="n">
         <v>47</v>
       </c>
+      <c r="HC77" t="n">
+        <v>33</v>
+      </c>
+      <c r="HD77" t="n">
+        <v>30</v>
+      </c>
+      <c r="HE77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49804,6 +50497,15 @@
       <c r="HB78" t="n">
         <v>2.04</v>
       </c>
+      <c r="HC78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HD78" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE78" t="n">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50438,6 +51140,15 @@
       <c r="HB79" t="n">
         <v>3.92</v>
       </c>
+      <c r="HC79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="HD79" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE79" t="n">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51072,6 +51783,15 @@
       <c r="HB80" t="n">
         <v>42.6</v>
       </c>
+      <c r="HC80" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HD80" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="HE80" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51706,6 +52426,15 @@
       <c r="HB81" t="n">
         <v>25.5</v>
       </c>
+      <c r="HC81" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="HD81" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HE81" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52340,6 +53069,15 @@
       <c r="HB82" t="n">
         <v>188</v>
       </c>
+      <c r="HC82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HD82" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="HE82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52974,6 +53712,15 @@
       <c r="HB83" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="HC83" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="HD83" t="n">
+        <v>88</v>
+      </c>
+      <c r="HE83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53608,6 +54355,15 @@
       <c r="HB84" t="n">
         <v>26</v>
       </c>
+      <c r="HC84" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="HD84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HE84" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54242,6 +54998,15 @@
       <c r="HB85" t="n">
         <v>111.8</v>
       </c>
+      <c r="HC85" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="HD85" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="HE85" t="n">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54876,6 +55641,15 @@
       <c r="HB86" t="n">
         <v>7</v>
       </c>
+      <c r="HC86" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55510,6 +56284,15 @@
       <c r="HB87" t="n">
         <v>5</v>
       </c>
+      <c r="HC87" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56144,6 +56927,15 @@
       <c r="HB88" t="n">
         <v>4</v>
       </c>
+      <c r="HC88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56778,6 +57570,15 @@
       <c r="HB89" t="n">
         <v>6</v>
       </c>
+      <c r="HC89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57412,6 +58213,15 @@
       <c r="HB90" t="n">
         <v>129</v>
       </c>
+      <c r="HC90" t="n">
+        <v>115</v>
+      </c>
+      <c r="HD90" t="n">
+        <v>126</v>
+      </c>
+      <c r="HE90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58046,6 +58856,15 @@
       <c r="HB91" t="n">
         <v>198</v>
       </c>
+      <c r="HC91" t="n">
+        <v>123</v>
+      </c>
+      <c r="HD91" t="n">
+        <v>221</v>
+      </c>
+      <c r="HE91" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58680,6 +59499,15 @@
       <c r="HB92" t="n">
         <v>254</v>
       </c>
+      <c r="HC92" t="n">
+        <v>168</v>
+      </c>
+      <c r="HD92" t="n">
+        <v>251</v>
+      </c>
+      <c r="HE92" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59314,6 +60142,15 @@
       <c r="HB93" t="n">
         <v>78.40000000000001</v>
       </c>
+      <c r="HC93" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HD93" t="n">
+        <v>73</v>
+      </c>
+      <c r="HE93" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59948,6 +60785,15 @@
       <c r="HB94" t="n">
         <v>49</v>
       </c>
+      <c r="HC94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HD94" t="n">
+        <v>51</v>
+      </c>
+      <c r="HE94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60582,6 +61428,15 @@
       <c r="HB95" t="n">
         <v>10</v>
       </c>
+      <c r="HC95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61216,6 +62071,15 @@
       <c r="HB96" t="n">
         <v>9</v>
       </c>
+      <c r="HC96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61850,6 +62714,15 @@
       <c r="HB97" t="n">
         <v>29</v>
       </c>
+      <c r="HC97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD97" t="n">
+        <v>22</v>
+      </c>
+      <c r="HE97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62484,6 +63357,15 @@
       <c r="HB98" t="n">
         <v>24</v>
       </c>
+      <c r="HC98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD98" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63118,6 +64000,15 @@
       <c r="HB99" t="n">
         <v>38</v>
       </c>
+      <c r="HC99" t="n">
+        <v>36</v>
+      </c>
+      <c r="HD99" t="n">
+        <v>39</v>
+      </c>
+      <c r="HE99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63752,6 +64643,15 @@
       <c r="HB100" t="n">
         <v>2</v>
       </c>
+      <c r="HC100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD100" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64386,6 +65286,15 @@
       <c r="HB101" t="n">
         <v>8</v>
       </c>
+      <c r="HC101" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65020,8 +65929,17 @@
       <c r="HB102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HC102" t="n">
+        <v>40</v>
+      </c>
+      <c r="HD102" t="n">
+        <v>60</v>
+      </c>
+      <c r="HE102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Melbourne_stats.xlsx
+++ b/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,24 @@
       <c r="HE1" t="n">
         <v>10263</v>
       </c>
+      <c r="HF1" t="n">
+        <v>10270</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>10283</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>10289</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>10296</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>10304</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>10311</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1638,6 +1656,24 @@
       <c r="HE2" t="n">
         <v>2020</v>
       </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2281,6 +2317,24 @@
       <c r="HE3" t="n">
         <v>12</v>
       </c>
+      <c r="HF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2924,6 +2978,24 @@
       <c r="HE4" t="n">
         <v>0</v>
       </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3567,6 +3639,24 @@
       <c r="HE5" t="n">
         <v>0</v>
       </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4210,6 +4300,24 @@
       <c r="HE6" t="n">
         <v>100</v>
       </c>
+      <c r="HF6" t="n">
+        <v>52</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>52</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>46</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>79</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4853,6 +4961,24 @@
       <c r="HE7" t="n">
         <v>44</v>
       </c>
+      <c r="HF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>49</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>67</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>47</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>74</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5496,6 +5622,24 @@
       <c r="HE8" t="n">
         <v>56</v>
       </c>
+      <c r="HF8" t="n">
+        <v>-28</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>-21</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6139,6 +6283,24 @@
       <c r="HE9" t="n">
         <v>1</v>
       </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6782,6 +6944,24 @@
       <c r="HE10" t="n">
         <v>4</v>
       </c>
+      <c r="HF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7425,6 +7605,24 @@
       <c r="HE11" t="n">
         <v>198</v>
       </c>
+      <c r="HF11" t="n">
+        <v>171</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>171</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>170</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>162</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>191</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8068,6 +8266,24 @@
       <c r="HE12" t="n">
         <v>124</v>
       </c>
+      <c r="HF12" t="n">
+        <v>113</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>116</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>122</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>93</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>98</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8711,6 +8927,24 @@
       <c r="HE13" t="n">
         <v>322</v>
       </c>
+      <c r="HF13" t="n">
+        <v>284</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>287</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>292</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>255</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>289</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9354,6 +9588,24 @@
       <c r="HE14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HF14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9997,6 +10249,24 @@
       <c r="HE15" t="n">
         <v>84</v>
       </c>
+      <c r="HF15" t="n">
+        <v>77</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>81</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>62</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>78</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10640,6 +10910,24 @@
       <c r="HE16" t="n">
         <v>38</v>
       </c>
+      <c r="HF16" t="n">
+        <v>46</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>36</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>52</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11283,6 +11571,24 @@
       <c r="HE17" t="n">
         <v>26</v>
       </c>
+      <c r="HF17" t="n">
+        <v>42</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>38</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>45</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11926,6 +12232,24 @@
       <c r="HE18" t="n">
         <v>21</v>
       </c>
+      <c r="HF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12569,6 +12893,24 @@
       <c r="HE19" t="n">
         <v>15</v>
       </c>
+      <c r="HF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13212,6 +13554,24 @@
       <c r="HE20" t="n">
         <v>16</v>
       </c>
+      <c r="HF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13855,6 +14215,24 @@
       <c r="HE21" t="n">
         <v>10</v>
       </c>
+      <c r="HF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14498,6 +14876,24 @@
       <c r="HE22" t="n">
         <v>2</v>
       </c>
+      <c r="HF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15141,6 +15537,24 @@
       <c r="HE23" t="n">
         <v>2</v>
       </c>
+      <c r="HF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15784,6 +16198,24 @@
       <c r="HE24" t="n">
         <v>20</v>
       </c>
+      <c r="HF24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16427,6 +16859,24 @@
       <c r="HE25" t="n">
         <v>80</v>
       </c>
+      <c r="HF25" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17070,6 +17520,24 @@
       <c r="HE26" t="n">
         <v>20.12</v>
       </c>
+      <c r="HF26" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17713,6 +18181,24 @@
       <c r="HE27" t="n">
         <v>16.1</v>
       </c>
+      <c r="HF27" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="HH27" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="HJ27" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>17.22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18356,6 +18842,24 @@
       <c r="HE28" t="n">
         <v>31</v>
       </c>
+      <c r="HF28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HG28" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI28" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ28" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18999,6 +19503,24 @@
       <c r="HE29" t="n">
         <v>56</v>
       </c>
+      <c r="HF29" t="n">
+        <v>53</v>
+      </c>
+      <c r="HG29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HH29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>66</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19642,6 +20164,24 @@
       <c r="HE30" t="n">
         <v>33</v>
       </c>
+      <c r="HF30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20285,6 +20825,24 @@
       <c r="HE31" t="n">
         <v>40</v>
       </c>
+      <c r="HF31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HG31" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HJ31" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20928,6 +21486,24 @@
       <c r="HE32" t="n">
         <v>2</v>
       </c>
+      <c r="HF32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="HG32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="HH32" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HJ32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21571,6 +22147,24 @@
       <c r="HE33" t="n">
         <v>2.5</v>
       </c>
+      <c r="HF33" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="HH33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="HJ33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22214,6 +22808,24 @@
       <c r="HE34" t="n">
         <v>45</v>
       </c>
+      <c r="HF34" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="HG34" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HH34" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="HJ34" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22857,6 +23469,24 @@
       <c r="HE35" t="n">
         <v>40</v>
       </c>
+      <c r="HF35" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="HG35" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="HH35" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="HI35" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="HJ35" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HK35" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23500,6 +24130,24 @@
       <c r="HE36" t="n">
         <v>186.2</v>
       </c>
+      <c r="HF36" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="HG36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HH36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HI36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HJ36" t="n">
+        <v>187</v>
+      </c>
+      <c r="HK36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24143,6 +24791,24 @@
       <c r="HE37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HF37" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HG37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="HH37" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="HI37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HJ37" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="HK37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24786,6 +25452,24 @@
       <c r="HE38" t="n">
         <v>25.41</v>
       </c>
+      <c r="HF38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HG38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HH38" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="HI38" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HJ38" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HK38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25429,6 +26113,24 @@
       <c r="HE39" t="n">
         <v>94.3</v>
       </c>
+      <c r="HF39" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="HG39" t="n">
+        <v>96</v>
+      </c>
+      <c r="HH39" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="HI39" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="HJ39" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="HK39" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26072,6 +26774,24 @@
       <c r="HE40" t="n">
         <v>7</v>
       </c>
+      <c r="HF40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26715,6 +27435,24 @@
       <c r="HE41" t="n">
         <v>6</v>
       </c>
+      <c r="HF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG41" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH41" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27358,6 +28096,24 @@
       <c r="HE42" t="n">
         <v>5</v>
       </c>
+      <c r="HF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28001,6 +28757,24 @@
       <c r="HE43" t="n">
         <v>4</v>
       </c>
+      <c r="HF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28644,6 +29418,24 @@
       <c r="HE44" t="n">
         <v>120</v>
       </c>
+      <c r="HF44" t="n">
+        <v>114</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>116</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>127</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>142</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>123</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29287,6 +30079,24 @@
       <c r="HE45" t="n">
         <v>200</v>
       </c>
+      <c r="HF45" t="n">
+        <v>170</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>169</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>165</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>98</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>156</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29930,6 +30740,24 @@
       <c r="HE46" t="n">
         <v>248</v>
       </c>
+      <c r="HF46" t="n">
+        <v>199</v>
+      </c>
+      <c r="HG46" t="n">
+        <v>210</v>
+      </c>
+      <c r="HH46" t="n">
+        <v>197</v>
+      </c>
+      <c r="HI46" t="n">
+        <v>136</v>
+      </c>
+      <c r="HJ46" t="n">
+        <v>187</v>
+      </c>
+      <c r="HK46" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30573,6 +31401,24 @@
       <c r="HE47" t="n">
         <v>77</v>
       </c>
+      <c r="HF47" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="HG47" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="HH47" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="HI47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HJ47" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HK47" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31216,6 +32062,24 @@
       <c r="HE48" t="n">
         <v>56</v>
       </c>
+      <c r="HF48" t="n">
+        <v>53</v>
+      </c>
+      <c r="HG48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HH48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI48" t="n">
+        <v>66</v>
+      </c>
+      <c r="HJ48" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK48" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31859,6 +32723,24 @@
       <c r="HE49" t="n">
         <v>3</v>
       </c>
+      <c r="HF49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HH49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32502,6 +33384,24 @@
       <c r="HE50" t="n">
         <v>12</v>
       </c>
+      <c r="HF50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33145,6 +34045,24 @@
       <c r="HE51" t="n">
         <v>31</v>
       </c>
+      <c r="HF51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HG51" t="n">
+        <v>23</v>
+      </c>
+      <c r="HH51" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI51" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ51" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK51" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33788,6 +34706,24 @@
       <c r="HE52" t="n">
         <v>33</v>
       </c>
+      <c r="HF52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HH52" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34431,6 +35367,24 @@
       <c r="HE53" t="n">
         <v>45</v>
       </c>
+      <c r="HF53" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG53" t="n">
+        <v>44</v>
+      </c>
+      <c r="HH53" t="n">
+        <v>47</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>59</v>
+      </c>
+      <c r="HJ53" t="n">
+        <v>38</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35074,6 +36028,24 @@
       <c r="HE54" t="n">
         <v>0</v>
       </c>
+      <c r="HF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35717,6 +36689,24 @@
       <c r="HE55" t="n">
         <v>10</v>
       </c>
+      <c r="HF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36360,6 +37350,24 @@
       <c r="HE56" t="n">
         <v>62.5</v>
       </c>
+      <c r="HF56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HG56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HH56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HI56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HJ56" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HK56" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37003,6 +38011,24 @@
       <c r="HE57" t="n">
         <v>161</v>
       </c>
+      <c r="HF57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HG57" t="n">
+        <v>170</v>
+      </c>
+      <c r="HH57" t="n">
+        <v>165</v>
+      </c>
+      <c r="HI57" t="n">
+        <v>190</v>
+      </c>
+      <c r="HJ57" t="n">
+        <v>169</v>
+      </c>
+      <c r="HK57" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37646,6 +38672,24 @@
       <c r="HE58" t="n">
         <v>153</v>
       </c>
+      <c r="HF58" t="n">
+        <v>150</v>
+      </c>
+      <c r="HG58" t="n">
+        <v>112</v>
+      </c>
+      <c r="HH58" t="n">
+        <v>124</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>151</v>
+      </c>
+      <c r="HJ58" t="n">
+        <v>119</v>
+      </c>
+      <c r="HK58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38289,6 +39333,24 @@
       <c r="HE59" t="n">
         <v>314</v>
       </c>
+      <c r="HF59" t="n">
+        <v>327</v>
+      </c>
+      <c r="HG59" t="n">
+        <v>282</v>
+      </c>
+      <c r="HH59" t="n">
+        <v>289</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>341</v>
+      </c>
+      <c r="HJ59" t="n">
+        <v>288</v>
+      </c>
+      <c r="HK59" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38932,6 +39994,24 @@
       <c r="HE60" t="n">
         <v>1.05</v>
       </c>
+      <c r="HF60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="HG60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="HH60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HJ60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39575,6 +40655,24 @@
       <c r="HE61" t="n">
         <v>55</v>
       </c>
+      <c r="HF61" t="n">
+        <v>74</v>
+      </c>
+      <c r="HG61" t="n">
+        <v>73</v>
+      </c>
+      <c r="HH61" t="n">
+        <v>53</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>74</v>
+      </c>
+      <c r="HJ61" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40218,6 +41316,24 @@
       <c r="HE62" t="n">
         <v>40</v>
       </c>
+      <c r="HF62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HG62" t="n">
+        <v>47</v>
+      </c>
+      <c r="HH62" t="n">
+        <v>58</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>65</v>
+      </c>
+      <c r="HJ62" t="n">
+        <v>67</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40861,6 +41977,24 @@
       <c r="HE63" t="n">
         <v>37</v>
       </c>
+      <c r="HF63" t="n">
+        <v>13</v>
+      </c>
+      <c r="HG63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HH63" t="n">
+        <v>19</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>23</v>
+      </c>
+      <c r="HJ63" t="n">
+        <v>20</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41504,6 +42638,24 @@
       <c r="HE64" t="n">
         <v>15</v>
       </c>
+      <c r="HF64" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42147,6 +43299,24 @@
       <c r="HE65" t="n">
         <v>21</v>
       </c>
+      <c r="HF65" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42790,6 +43960,24 @@
       <c r="HE66" t="n">
         <v>6</v>
       </c>
+      <c r="HF66" t="n">
+        <v>12</v>
+      </c>
+      <c r="HG66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH66" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43433,6 +44621,24 @@
       <c r="HE67" t="n">
         <v>4</v>
       </c>
+      <c r="HF67" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44076,6 +45282,24 @@
       <c r="HE68" t="n">
         <v>5</v>
       </c>
+      <c r="HF68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44719,6 +45943,24 @@
       <c r="HE69" t="n">
         <v>3</v>
       </c>
+      <c r="HF69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45362,6 +46604,24 @@
       <c r="HE70" t="n">
         <v>14</v>
       </c>
+      <c r="HF70" t="n">
+        <v>20</v>
+      </c>
+      <c r="HG70" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HI70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HJ70" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46005,6 +47265,24 @@
       <c r="HE71" t="n">
         <v>42.9</v>
       </c>
+      <c r="HF71" t="n">
+        <v>60</v>
+      </c>
+      <c r="HG71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HH71" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HJ71" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46648,6 +47926,24 @@
       <c r="HE72" t="n">
         <v>52.33</v>
       </c>
+      <c r="HF72" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="HG72" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="HH72" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="HJ72" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>45.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47291,6 +48587,24 @@
       <c r="HE73" t="n">
         <v>22.43</v>
       </c>
+      <c r="HF73" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="HG73" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="HH73" t="n">
+        <v>17</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="HJ73" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>22.93</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47934,6 +49248,24 @@
       <c r="HE74" t="n">
         <v>32</v>
       </c>
+      <c r="HF74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HG74" t="n">
+        <v>29</v>
+      </c>
+      <c r="HH74" t="n">
+        <v>29</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48577,6 +49909,24 @@
       <c r="HE75" t="n">
         <v>64</v>
       </c>
+      <c r="HF75" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG75" t="n">
+        <v>35</v>
+      </c>
+      <c r="HH75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>51</v>
+      </c>
+      <c r="HJ75" t="n">
+        <v>52</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49220,6 +50570,24 @@
       <c r="HE76" t="n">
         <v>23</v>
       </c>
+      <c r="HF76" t="n">
+        <v>37</v>
+      </c>
+      <c r="HG76" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49863,6 +51231,24 @@
       <c r="HE77" t="n">
         <v>41</v>
       </c>
+      <c r="HF77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG77" t="n">
+        <v>46</v>
+      </c>
+      <c r="HH77" t="n">
+        <v>34</v>
+      </c>
+      <c r="HI77" t="n">
+        <v>46</v>
+      </c>
+      <c r="HJ77" t="n">
+        <v>52</v>
+      </c>
+      <c r="HK77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50506,6 +51892,24 @@
       <c r="HE78" t="n">
         <v>2.93</v>
       </c>
+      <c r="HF78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HG78" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="HH78" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI78" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="HJ78" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="HK78" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51149,6 +52553,24 @@
       <c r="HE79" t="n">
         <v>6.83</v>
       </c>
+      <c r="HF79" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="HG79" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="HH79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HI79" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="HJ79" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="HK79" t="n">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51792,6 +53214,24 @@
       <c r="HE80" t="n">
         <v>26.8</v>
       </c>
+      <c r="HF80" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="HG80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="HH80" t="n">
+        <v>50</v>
+      </c>
+      <c r="HI80" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="HJ80" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="HK80" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52435,6 +53875,24 @@
       <c r="HE81" t="n">
         <v>14.6</v>
       </c>
+      <c r="HF81" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HG81" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="HH81" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HI81" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ81" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="HK81" t="n">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53078,6 +54536,24 @@
       <c r="HE82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HF82" t="n">
+        <v>187</v>
+      </c>
+      <c r="HG82" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="HH82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HI82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HJ82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HK82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53721,6 +55197,24 @@
       <c r="HE83" t="n">
         <v>88.3</v>
       </c>
+      <c r="HF83" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="HG83" t="n">
+        <v>85</v>
+      </c>
+      <c r="HH83" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HI83" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HJ83" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HK83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54364,6 +55858,24 @@
       <c r="HE84" t="n">
         <v>26.74</v>
       </c>
+      <c r="HF84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HG84" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HH84" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="HI84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HJ84" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HK84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55007,6 +56519,24 @@
       <c r="HE85" t="n">
         <v>107.7</v>
       </c>
+      <c r="HF85" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HG85" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="HH85" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="HI85" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="HJ85" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="HK85" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55650,6 +57180,24 @@
       <c r="HE86" t="n">
         <v>7</v>
       </c>
+      <c r="HF86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HG86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56293,6 +57841,24 @@
       <c r="HE87" t="n">
         <v>4</v>
       </c>
+      <c r="HF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56936,6 +58502,24 @@
       <c r="HE88" t="n">
         <v>6</v>
       </c>
+      <c r="HF88" t="n">
+        <v>8</v>
+      </c>
+      <c r="HG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57579,6 +59163,24 @@
       <c r="HE89" t="n">
         <v>5</v>
       </c>
+      <c r="HF89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58222,6 +59824,24 @@
       <c r="HE90" t="n">
         <v>122</v>
       </c>
+      <c r="HF90" t="n">
+        <v>112</v>
+      </c>
+      <c r="HG90" t="n">
+        <v>105</v>
+      </c>
+      <c r="HH90" t="n">
+        <v>117</v>
+      </c>
+      <c r="HI90" t="n">
+        <v>134</v>
+      </c>
+      <c r="HJ90" t="n">
+        <v>146</v>
+      </c>
+      <c r="HK90" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58865,6 +60485,24 @@
       <c r="HE91" t="n">
         <v>192</v>
       </c>
+      <c r="HF91" t="n">
+        <v>210</v>
+      </c>
+      <c r="HG91" t="n">
+        <v>171</v>
+      </c>
+      <c r="HH91" t="n">
+        <v>164</v>
+      </c>
+      <c r="HI91" t="n">
+        <v>206</v>
+      </c>
+      <c r="HJ91" t="n">
+        <v>146</v>
+      </c>
+      <c r="HK91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59508,6 +61146,24 @@
       <c r="HE92" t="n">
         <v>214</v>
       </c>
+      <c r="HF92" t="n">
+        <v>241</v>
+      </c>
+      <c r="HG92" t="n">
+        <v>212</v>
+      </c>
+      <c r="HH92" t="n">
+        <v>199</v>
+      </c>
+      <c r="HI92" t="n">
+        <v>244</v>
+      </c>
+      <c r="HJ92" t="n">
+        <v>181</v>
+      </c>
+      <c r="HK92" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60151,6 +61807,24 @@
       <c r="HE93" t="n">
         <v>68.2</v>
       </c>
+      <c r="HF93" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="HG93" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="HH93" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="HI93" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="HJ93" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="HK93" t="n">
+        <v>82.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60794,6 +62468,24 @@
       <c r="HE94" t="n">
         <v>64</v>
       </c>
+      <c r="HF94" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG94" t="n">
+        <v>35</v>
+      </c>
+      <c r="HH94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HI94" t="n">
+        <v>51</v>
+      </c>
+      <c r="HJ94" t="n">
+        <v>52</v>
+      </c>
+      <c r="HK94" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61437,6 +63129,24 @@
       <c r="HE95" t="n">
         <v>3</v>
       </c>
+      <c r="HF95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62080,6 +63790,24 @@
       <c r="HE96" t="n">
         <v>7</v>
       </c>
+      <c r="HF96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH96" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62723,6 +64451,24 @@
       <c r="HE97" t="n">
         <v>32</v>
       </c>
+      <c r="HF97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HG97" t="n">
+        <v>29</v>
+      </c>
+      <c r="HH97" t="n">
+        <v>29</v>
+      </c>
+      <c r="HI97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HK97" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63366,6 +65112,24 @@
       <c r="HE98" t="n">
         <v>23</v>
       </c>
+      <c r="HF98" t="n">
+        <v>37</v>
+      </c>
+      <c r="HG98" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HI98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ98" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64009,6 +65773,24 @@
       <c r="HE99" t="n">
         <v>42</v>
       </c>
+      <c r="HF99" t="n">
+        <v>43</v>
+      </c>
+      <c r="HG99" t="n">
+        <v>32</v>
+      </c>
+      <c r="HH99" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI99" t="n">
+        <v>52</v>
+      </c>
+      <c r="HJ99" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK99" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64652,6 +66434,24 @@
       <c r="HE100" t="n">
         <v>1</v>
       </c>
+      <c r="HF100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG100" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH100" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65295,6 +67095,24 @@
       <c r="HE101" t="n">
         <v>4</v>
       </c>
+      <c r="HF101" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI101" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65938,8 +67756,26 @@
       <c r="HE102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HF102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HG102" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="HH102" t="n">
+        <v>70</v>
+      </c>
+      <c r="HI102" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HJ102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HK102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>